--- a/반은숙/반은숙근무기록.xlsx
+++ b/반은숙/반은숙근무기록.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\반은숙\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABFE3C-50A3-4DF6-96E5-F4B070D4197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="6월 아르바이트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0"/>
     <numFmt numFmtId="177" formatCode="h&quot;:&quot;mm"/>
@@ -103,6 +102,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -560,29 +560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.1328125" customWidth="1"/>
+    <col min="1" max="3" width="11.08984375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="8" max="8" width="9.46484375" customWidth="1"/>
-    <col min="9" max="9" width="21.46484375" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
-    <col min="11" max="11" width="21.86328125" customWidth="1"/>
-    <col min="12" max="12" width="9.73046875" customWidth="1"/>
-    <col min="13" max="13" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
@@ -688,7 +688,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -761,7 +761,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
@@ -793,7 +793,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
@@ -818,7 +818,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -843,7 +843,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
@@ -868,7 +868,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
@@ -893,7 +893,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -918,7 +918,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
@@ -943,7 +943,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
@@ -968,7 +968,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
@@ -993,7 +993,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -1018,7 +1018,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -1043,7 +1043,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -1068,7 +1068,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
@@ -1093,7 +1093,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -1118,7 +1118,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
@@ -1143,7 +1143,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
@@ -1168,7 +1168,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
@@ -1193,7 +1193,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
@@ -1218,7 +1218,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
@@ -1243,7 +1243,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -1268,7 +1268,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -1293,7 +1293,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -1318,7 +1318,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -1343,7 +1343,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -1368,7 +1368,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -1393,7 +1393,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -1418,7 +1418,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -1443,7 +1443,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -1468,7 +1468,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -1493,7 +1493,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -1518,7 +1518,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -1543,7 +1543,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -1568,7 +1568,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -1593,7 +1593,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -1618,7 +1618,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -1643,7 +1643,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -1668,7 +1668,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -1693,7 +1693,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -1718,7 +1718,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -1743,7 +1743,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -1768,7 +1768,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -1793,7 +1793,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -1818,7 +1818,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -1843,7 +1843,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -1868,7 +1868,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -1893,7 +1893,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -1918,7 +1918,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -1943,7 +1943,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -1968,7 +1968,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -1993,7 +1993,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -2018,7 +2018,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -2043,7 +2043,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -2068,7 +2068,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -2093,7 +2093,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -2118,7 +2118,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -2143,7 +2143,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -2168,7 +2168,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -2193,7 +2193,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -2218,7 +2218,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -2243,7 +2243,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -2268,7 +2268,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -2293,7 +2293,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -2318,7 +2318,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -2343,7 +2343,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -2368,7 +2368,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -2393,7 +2393,7 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -2418,7 +2418,7 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -2443,7 +2443,7 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -2468,7 +2468,7 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -2493,7 +2493,7 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -2518,7 +2518,7 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -2543,7 +2543,7 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -2568,7 +2568,7 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -2593,7 +2593,7 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -2618,7 +2618,7 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -2643,7 +2643,7 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -2668,7 +2668,7 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -2693,7 +2693,7 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -2718,7 +2718,7 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -2743,7 +2743,7 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -2768,7 +2768,7 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -2793,7 +2793,7 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -2818,7 +2818,7 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -2843,7 +2843,7 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -2868,7 +2868,7 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -2893,7 +2893,7 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -2918,7 +2918,7 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -2943,7 +2943,7 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -2968,7 +2968,7 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -2993,7 +2993,7 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -3018,7 +3018,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -3043,7 +3043,7 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -3068,7 +3068,7 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -3093,7 +3093,7 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -3118,7 +3118,7 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -3143,7 +3143,7 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -3168,7 +3168,7 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -3193,7 +3193,7 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -3218,7 +3218,7 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -3243,7 +3243,7 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -3268,7 +3268,7 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -3293,7 +3293,7 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -3318,7 +3318,7 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -3343,7 +3343,7 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -3368,7 +3368,7 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -3393,7 +3393,7 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -3418,7 +3418,7 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -3443,7 +3443,7 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -3468,7 +3468,7 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
@@ -3493,7 +3493,7 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -3518,7 +3518,7 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -3543,7 +3543,7 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
@@ -3568,7 +3568,7 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
@@ -3593,7 +3593,7 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
@@ -3618,7 +3618,7 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
@@ -3643,7 +3643,7 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
@@ -3668,7 +3668,7 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
@@ -3693,7 +3693,7 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
@@ -3718,7 +3718,7 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
@@ -3743,7 +3743,7 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
@@ -3768,7 +3768,7 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
@@ -3793,7 +3793,7 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -3818,7 +3818,7 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
@@ -3843,7 +3843,7 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
@@ -3868,7 +3868,7 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -3893,7 +3893,7 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -3918,7 +3918,7 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -3943,7 +3943,7 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -3968,7 +3968,7 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -3993,7 +3993,7 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
@@ -4018,7 +4018,7 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
@@ -4043,7 +4043,7 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
@@ -4068,7 +4068,7 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
@@ -4093,7 +4093,7 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
@@ -4118,7 +4118,7 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
@@ -4143,7 +4143,7 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
@@ -4168,7 +4168,7 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
@@ -4193,7 +4193,7 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
@@ -4218,7 +4218,7 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -4243,7 +4243,7 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -4268,7 +4268,7 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
     </row>
-    <row r="146" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -4293,7 +4293,7 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
     </row>
-    <row r="147" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -4318,7 +4318,7 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
     </row>
-    <row r="148" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -4343,7 +4343,7 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -4368,7 +4368,7 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
     </row>
-    <row r="150" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -4393,7 +4393,7 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -4418,7 +4418,7 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
     </row>
-    <row r="152" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -4443,7 +4443,7 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
     </row>
-    <row r="153" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -4468,7 +4468,7 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -4493,7 +4493,7 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -4518,7 +4518,7 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -4543,7 +4543,7 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -4568,7 +4568,7 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -4593,7 +4593,7 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
     </row>
-    <row r="159" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -4618,7 +4618,7 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
     </row>
-    <row r="160" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -4643,7 +4643,7 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
     </row>
-    <row r="161" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -4668,7 +4668,7 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
     </row>
-    <row r="162" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -4693,7 +4693,7 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
     </row>
-    <row r="163" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -4718,7 +4718,7 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
     </row>
-    <row r="164" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -4743,7 +4743,7 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
     </row>
-    <row r="165" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -4768,7 +4768,7 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
     </row>
-    <row r="166" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -4793,7 +4793,7 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
     </row>
-    <row r="167" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -4818,7 +4818,7 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
     </row>
-    <row r="168" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -4843,7 +4843,7 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
     </row>
-    <row r="169" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -4868,7 +4868,7 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
     </row>
-    <row r="170" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -4893,7 +4893,7 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="171" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
@@ -4918,7 +4918,7 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
     </row>
-    <row r="172" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -4943,7 +4943,7 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
     </row>
-    <row r="173" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
@@ -4968,7 +4968,7 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
     </row>
-    <row r="174" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
@@ -4993,7 +4993,7 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
     </row>
-    <row r="175" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -5018,7 +5018,7 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
     </row>
-    <row r="176" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -5043,7 +5043,7 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
     </row>
-    <row r="177" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
@@ -5068,7 +5068,7 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
     </row>
-    <row r="178" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
@@ -5093,7 +5093,7 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
     </row>
-    <row r="179" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
@@ -5118,7 +5118,7 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
     </row>
-    <row r="180" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
@@ -5143,7 +5143,7 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
     </row>
-    <row r="181" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -5168,7 +5168,7 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
     </row>
-    <row r="182" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -5193,7 +5193,7 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
     </row>
-    <row r="183" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
@@ -5218,7 +5218,7 @@
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
     </row>
-    <row r="184" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
@@ -5243,7 +5243,7 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
     </row>
-    <row r="185" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
@@ -5268,7 +5268,7 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
     </row>
-    <row r="186" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
@@ -5293,7 +5293,7 @@
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
     </row>
-    <row r="187" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
@@ -5318,7 +5318,7 @@
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
     </row>
-    <row r="188" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
@@ -5343,7 +5343,7 @@
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
     </row>
-    <row r="189" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
@@ -5368,7 +5368,7 @@
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
     </row>
-    <row r="190" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -5393,7 +5393,7 @@
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
     </row>
-    <row r="191" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -5418,7 +5418,7 @@
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
     </row>
-    <row r="192" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
@@ -5443,7 +5443,7 @@
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
     </row>
-    <row r="193" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
@@ -5468,7 +5468,7 @@
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
     </row>
-    <row r="194" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
@@ -5493,7 +5493,7 @@
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
     </row>
-    <row r="195" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
@@ -5518,7 +5518,7 @@
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
     </row>
-    <row r="196" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -5543,7 +5543,7 @@
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
     </row>
-    <row r="197" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -5568,7 +5568,7 @@
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
     </row>
-    <row r="198" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
@@ -5593,7 +5593,7 @@
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
     </row>
-    <row r="199" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
@@ -5618,7 +5618,7 @@
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
     </row>
-    <row r="200" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
@@ -5643,7 +5643,7 @@
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
     </row>
-    <row r="201" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="10"/>
@@ -5668,7 +5668,7 @@
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
     </row>
-    <row r="202" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="10"/>
@@ -5693,7 +5693,7 @@
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
     </row>
-    <row r="203" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="10"/>
@@ -5718,7 +5718,7 @@
       <c r="V203" s="4"/>
       <c r="W203" s="4"/>
     </row>
-    <row r="204" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="10"/>
@@ -5743,7 +5743,7 @@
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
     </row>
-    <row r="205" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="10"/>
@@ -5768,7 +5768,7 @@
       <c r="V205" s="4"/>
       <c r="W205" s="4"/>
     </row>
-    <row r="206" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="10"/>
@@ -5793,7 +5793,7 @@
       <c r="V206" s="4"/>
       <c r="W206" s="4"/>
     </row>
-    <row r="207" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="10"/>
@@ -5818,7 +5818,7 @@
       <c r="V207" s="4"/>
       <c r="W207" s="4"/>
     </row>
-    <row r="208" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="10"/>
@@ -5843,7 +5843,7 @@
       <c r="V208" s="4"/>
       <c r="W208" s="4"/>
     </row>
-    <row r="209" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="10"/>
@@ -5868,7 +5868,7 @@
       <c r="V209" s="4"/>
       <c r="W209" s="4"/>
     </row>
-    <row r="210" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="10"/>
@@ -5893,7 +5893,7 @@
       <c r="V210" s="4"/>
       <c r="W210" s="4"/>
     </row>
-    <row r="211" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="10"/>
@@ -5918,7 +5918,7 @@
       <c r="V211" s="4"/>
       <c r="W211" s="4"/>
     </row>
-    <row r="212" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="10"/>
@@ -5943,7 +5943,7 @@
       <c r="V212" s="4"/>
       <c r="W212" s="4"/>
     </row>
-    <row r="213" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="10"/>
@@ -5968,7 +5968,7 @@
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
     </row>
-    <row r="214" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="10"/>
@@ -5993,7 +5993,7 @@
       <c r="V214" s="4"/>
       <c r="W214" s="4"/>
     </row>
-    <row r="215" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="10"/>
@@ -6018,7 +6018,7 @@
       <c r="V215" s="4"/>
       <c r="W215" s="4"/>
     </row>
-    <row r="216" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="10"/>
@@ -6043,7 +6043,7 @@
       <c r="V216" s="4"/>
       <c r="W216" s="4"/>
     </row>
-    <row r="217" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="C217" s="10"/>
@@ -6068,7 +6068,7 @@
       <c r="V217" s="4"/>
       <c r="W217" s="4"/>
     </row>
-    <row r="218" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="C218" s="10"/>
@@ -6093,7 +6093,7 @@
       <c r="V218" s="4"/>
       <c r="W218" s="4"/>
     </row>
-    <row r="219" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="C219" s="10"/>
@@ -6118,7 +6118,7 @@
       <c r="V219" s="4"/>
       <c r="W219" s="4"/>
     </row>
-    <row r="220" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="C220" s="10"/>
@@ -6143,7 +6143,7 @@
       <c r="V220" s="4"/>
       <c r="W220" s="4"/>
     </row>
-    <row r="221" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="C221" s="10"/>
@@ -6168,7 +6168,7 @@
       <c r="V221" s="4"/>
       <c r="W221" s="4"/>
     </row>
-    <row r="222" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="C222" s="10"/>
@@ -6193,7 +6193,7 @@
       <c r="V222" s="4"/>
       <c r="W222" s="4"/>
     </row>
-    <row r="223" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="11"/>
       <c r="C223" s="10"/>
@@ -6218,7 +6218,7 @@
       <c r="V223" s="4"/>
       <c r="W223" s="4"/>
     </row>
-    <row r="224" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="11"/>
       <c r="C224" s="10"/>
@@ -6243,7 +6243,7 @@
       <c r="V224" s="4"/>
       <c r="W224" s="4"/>
     </row>
-    <row r="225" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="11"/>
       <c r="C225" s="10"/>
@@ -6268,7 +6268,7 @@
       <c r="V225" s="4"/>
       <c r="W225" s="4"/>
     </row>
-    <row r="226" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="11"/>
       <c r="C226" s="10"/>
@@ -6293,7 +6293,7 @@
       <c r="V226" s="4"/>
       <c r="W226" s="4"/>
     </row>
-    <row r="227" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="11"/>
       <c r="C227" s="10"/>
@@ -6318,7 +6318,7 @@
       <c r="V227" s="4"/>
       <c r="W227" s="4"/>
     </row>
-    <row r="228" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="11"/>
       <c r="C228" s="10"/>
@@ -6343,7 +6343,7 @@
       <c r="V228" s="4"/>
       <c r="W228" s="4"/>
     </row>
-    <row r="229" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="11"/>
       <c r="C229" s="10"/>
@@ -6368,7 +6368,7 @@
       <c r="V229" s="4"/>
       <c r="W229" s="4"/>
     </row>
-    <row r="230" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="C230" s="10"/>
@@ -6393,7 +6393,7 @@
       <c r="V230" s="4"/>
       <c r="W230" s="4"/>
     </row>
-    <row r="231" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="C231" s="10"/>
@@ -6418,7 +6418,7 @@
       <c r="V231" s="4"/>
       <c r="W231" s="4"/>
     </row>
-    <row r="232" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="C232" s="10"/>
@@ -6443,7 +6443,7 @@
       <c r="V232" s="4"/>
       <c r="W232" s="4"/>
     </row>
-    <row r="233" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="11"/>
       <c r="C233" s="10"/>
@@ -6468,7 +6468,7 @@
       <c r="V233" s="4"/>
       <c r="W233" s="4"/>
     </row>
-    <row r="234" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="C234" s="10"/>
@@ -6493,7 +6493,7 @@
       <c r="V234" s="4"/>
       <c r="W234" s="4"/>
     </row>
-    <row r="235" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="C235" s="10"/>
@@ -6518,7 +6518,7 @@
       <c r="V235" s="4"/>
       <c r="W235" s="4"/>
     </row>
-    <row r="236" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="11"/>
       <c r="C236" s="10"/>
@@ -6543,7 +6543,7 @@
       <c r="V236" s="4"/>
       <c r="W236" s="4"/>
     </row>
-    <row r="237" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="11"/>
       <c r="C237" s="10"/>
@@ -6568,7 +6568,7 @@
       <c r="V237" s="4"/>
       <c r="W237" s="4"/>
     </row>
-    <row r="238" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="C238" s="10"/>
@@ -6593,7 +6593,7 @@
       <c r="V238" s="4"/>
       <c r="W238" s="4"/>
     </row>
-    <row r="239" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="10"/>
@@ -6618,7 +6618,7 @@
       <c r="V239" s="4"/>
       <c r="W239" s="4"/>
     </row>
-    <row r="240" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="10"/>
@@ -6643,7 +6643,7 @@
       <c r="V240" s="4"/>
       <c r="W240" s="4"/>
     </row>
-    <row r="241" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="10"/>
@@ -6668,7 +6668,7 @@
       <c r="V241" s="4"/>
       <c r="W241" s="4"/>
     </row>
-    <row r="242" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="10"/>
@@ -6693,7 +6693,7 @@
       <c r="V242" s="4"/>
       <c r="W242" s="4"/>
     </row>
-    <row r="243" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="C243" s="10"/>
@@ -6718,7 +6718,7 @@
       <c r="V243" s="4"/>
       <c r="W243" s="4"/>
     </row>
-    <row r="244" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="C244" s="10"/>
@@ -6743,7 +6743,7 @@
       <c r="V244" s="4"/>
       <c r="W244" s="4"/>
     </row>
-    <row r="245" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="11"/>
       <c r="C245" s="10"/>
@@ -6768,7 +6768,7 @@
       <c r="V245" s="4"/>
       <c r="W245" s="4"/>
     </row>
-    <row r="246" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="C246" s="10"/>
@@ -6793,7 +6793,7 @@
       <c r="V246" s="4"/>
       <c r="W246" s="4"/>
     </row>
-    <row r="247" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="C247" s="10"/>
@@ -6818,7 +6818,7 @@
       <c r="V247" s="4"/>
       <c r="W247" s="4"/>
     </row>
-    <row r="248" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="C248" s="10"/>
@@ -6843,7 +6843,7 @@
       <c r="V248" s="4"/>
       <c r="W248" s="4"/>
     </row>
-    <row r="249" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="C249" s="10"/>
@@ -6868,7 +6868,7 @@
       <c r="V249" s="4"/>
       <c r="W249" s="4"/>
     </row>
-    <row r="250" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="C250" s="10"/>
@@ -6893,7 +6893,7 @@
       <c r="V250" s="4"/>
       <c r="W250" s="4"/>
     </row>
-    <row r="251" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="C251" s="10"/>
@@ -6918,7 +6918,7 @@
       <c r="V251" s="4"/>
       <c r="W251" s="4"/>
     </row>
-    <row r="252" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="C252" s="10"/>
@@ -6943,7 +6943,7 @@
       <c r="V252" s="4"/>
       <c r="W252" s="4"/>
     </row>
-    <row r="253" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="C253" s="10"/>
@@ -6968,7 +6968,7 @@
       <c r="V253" s="4"/>
       <c r="W253" s="4"/>
     </row>
-    <row r="254" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="C254" s="10"/>
@@ -6993,7 +6993,7 @@
       <c r="V254" s="4"/>
       <c r="W254" s="4"/>
     </row>
-    <row r="255" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="C255" s="10"/>
@@ -7018,7 +7018,7 @@
       <c r="V255" s="4"/>
       <c r="W255" s="4"/>
     </row>
-    <row r="256" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="11"/>
       <c r="C256" s="10"/>
@@ -7043,7 +7043,7 @@
       <c r="V256" s="4"/>
       <c r="W256" s="4"/>
     </row>
-    <row r="257" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="C257" s="10"/>
@@ -7068,7 +7068,7 @@
       <c r="V257" s="4"/>
       <c r="W257" s="4"/>
     </row>
-    <row r="258" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="C258" s="10"/>
@@ -7093,7 +7093,7 @@
       <c r="V258" s="4"/>
       <c r="W258" s="4"/>
     </row>
-    <row r="259" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="C259" s="10"/>
@@ -7118,7 +7118,7 @@
       <c r="V259" s="4"/>
       <c r="W259" s="4"/>
     </row>
-    <row r="260" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="C260" s="10"/>
@@ -7143,7 +7143,7 @@
       <c r="V260" s="4"/>
       <c r="W260" s="4"/>
     </row>
-    <row r="261" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="C261" s="10"/>
@@ -7168,7 +7168,7 @@
       <c r="V261" s="4"/>
       <c r="W261" s="4"/>
     </row>
-    <row r="262" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="C262" s="10"/>
@@ -7193,7 +7193,7 @@
       <c r="V262" s="4"/>
       <c r="W262" s="4"/>
     </row>
-    <row r="263" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="C263" s="10"/>
@@ -7218,7 +7218,7 @@
       <c r="V263" s="4"/>
       <c r="W263" s="4"/>
     </row>
-    <row r="264" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="C264" s="10"/>
@@ -7243,7 +7243,7 @@
       <c r="V264" s="4"/>
       <c r="W264" s="4"/>
     </row>
-    <row r="265" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="C265" s="10"/>
@@ -7268,7 +7268,7 @@
       <c r="V265" s="4"/>
       <c r="W265" s="4"/>
     </row>
-    <row r="266" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="C266" s="10"/>
@@ -7293,7 +7293,7 @@
       <c r="V266" s="4"/>
       <c r="W266" s="4"/>
     </row>
-    <row r="267" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="C267" s="10"/>
@@ -7318,7 +7318,7 @@
       <c r="V267" s="4"/>
       <c r="W267" s="4"/>
     </row>
-    <row r="268" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="C268" s="10"/>
@@ -7343,7 +7343,7 @@
       <c r="V268" s="4"/>
       <c r="W268" s="4"/>
     </row>
-    <row r="269" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="C269" s="10"/>
@@ -7368,7 +7368,7 @@
       <c r="V269" s="4"/>
       <c r="W269" s="4"/>
     </row>
-    <row r="270" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="11"/>
       <c r="C270" s="10"/>
@@ -7393,7 +7393,7 @@
       <c r="V270" s="4"/>
       <c r="W270" s="4"/>
     </row>
-    <row r="271" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="C271" s="10"/>
@@ -7418,7 +7418,7 @@
       <c r="V271" s="4"/>
       <c r="W271" s="4"/>
     </row>
-    <row r="272" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="C272" s="10"/>
@@ -7443,7 +7443,7 @@
       <c r="V272" s="4"/>
       <c r="W272" s="4"/>
     </row>
-    <row r="273" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="C273" s="10"/>
@@ -7468,7 +7468,7 @@
       <c r="V273" s="4"/>
       <c r="W273" s="4"/>
     </row>
-    <row r="274" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="C274" s="10"/>
@@ -7493,7 +7493,7 @@
       <c r="V274" s="4"/>
       <c r="W274" s="4"/>
     </row>
-    <row r="275" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="C275" s="10"/>
@@ -7518,7 +7518,7 @@
       <c r="V275" s="4"/>
       <c r="W275" s="4"/>
     </row>
-    <row r="276" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="C276" s="10"/>
@@ -7543,7 +7543,7 @@
       <c r="V276" s="4"/>
       <c r="W276" s="4"/>
     </row>
-    <row r="277" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="C277" s="10"/>
@@ -7568,7 +7568,7 @@
       <c r="V277" s="4"/>
       <c r="W277" s="4"/>
     </row>
-    <row r="278" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="C278" s="10"/>
@@ -7593,7 +7593,7 @@
       <c r="V278" s="4"/>
       <c r="W278" s="4"/>
     </row>
-    <row r="279" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="C279" s="10"/>
@@ -7618,7 +7618,7 @@
       <c r="V279" s="4"/>
       <c r="W279" s="4"/>
     </row>
-    <row r="280" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="C280" s="10"/>
@@ -7643,7 +7643,7 @@
       <c r="V280" s="4"/>
       <c r="W280" s="4"/>
     </row>
-    <row r="281" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="C281" s="10"/>
@@ -7668,7 +7668,7 @@
       <c r="V281" s="4"/>
       <c r="W281" s="4"/>
     </row>
-    <row r="282" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="11"/>
       <c r="C282" s="10"/>
@@ -7693,7 +7693,7 @@
       <c r="V282" s="4"/>
       <c r="W282" s="4"/>
     </row>
-    <row r="283" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="C283" s="10"/>
@@ -7718,7 +7718,7 @@
       <c r="V283" s="4"/>
       <c r="W283" s="4"/>
     </row>
-    <row r="284" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="C284" s="10"/>
@@ -7743,7 +7743,7 @@
       <c r="V284" s="4"/>
       <c r="W284" s="4"/>
     </row>
-    <row r="285" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="C285" s="10"/>
@@ -7768,7 +7768,7 @@
       <c r="V285" s="4"/>
       <c r="W285" s="4"/>
     </row>
-    <row r="286" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="10"/>
@@ -7793,7 +7793,7 @@
       <c r="V286" s="4"/>
       <c r="W286" s="4"/>
     </row>
-    <row r="287" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="C287" s="10"/>
@@ -7818,7 +7818,7 @@
       <c r="V287" s="4"/>
       <c r="W287" s="4"/>
     </row>
-    <row r="288" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="C288" s="10"/>
@@ -7843,7 +7843,7 @@
       <c r="V288" s="4"/>
       <c r="W288" s="4"/>
     </row>
-    <row r="289" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="C289" s="10"/>
@@ -7868,7 +7868,7 @@
       <c r="V289" s="4"/>
       <c r="W289" s="4"/>
     </row>
-    <row r="290" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="C290" s="10"/>
@@ -7893,7 +7893,7 @@
       <c r="V290" s="4"/>
       <c r="W290" s="4"/>
     </row>
-    <row r="291" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="C291" s="10"/>
@@ -7918,7 +7918,7 @@
       <c r="V291" s="4"/>
       <c r="W291" s="4"/>
     </row>
-    <row r="292" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="C292" s="10"/>
@@ -7943,7 +7943,7 @@
       <c r="V292" s="4"/>
       <c r="W292" s="4"/>
     </row>
-    <row r="293" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="C293" s="10"/>
@@ -7968,7 +7968,7 @@
       <c r="V293" s="4"/>
       <c r="W293" s="4"/>
     </row>
-    <row r="294" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="C294" s="10"/>
@@ -7993,7 +7993,7 @@
       <c r="V294" s="4"/>
       <c r="W294" s="4"/>
     </row>
-    <row r="295" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="C295" s="10"/>
@@ -8018,7 +8018,7 @@
       <c r="V295" s="4"/>
       <c r="W295" s="4"/>
     </row>
-    <row r="296" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="10"/>
@@ -8043,7 +8043,7 @@
       <c r="V296" s="4"/>
       <c r="W296" s="4"/>
     </row>
-    <row r="297" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="C297" s="10"/>
@@ -8068,7 +8068,7 @@
       <c r="V297" s="4"/>
       <c r="W297" s="4"/>
     </row>
-    <row r="298" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="C298" s="10"/>
@@ -8093,7 +8093,7 @@
       <c r="V298" s="4"/>
       <c r="W298" s="4"/>
     </row>
-    <row r="299" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="C299" s="10"/>
@@ -8118,7 +8118,7 @@
       <c r="V299" s="4"/>
       <c r="W299" s="4"/>
     </row>
-    <row r="300" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="C300" s="10"/>
@@ -8143,7 +8143,7 @@
       <c r="V300" s="4"/>
       <c r="W300" s="4"/>
     </row>
-    <row r="301" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="C301" s="10"/>
@@ -8168,7 +8168,7 @@
       <c r="V301" s="4"/>
       <c r="W301" s="4"/>
     </row>
-    <row r="302" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="C302" s="10"/>
@@ -8193,7 +8193,7 @@
       <c r="V302" s="4"/>
       <c r="W302" s="4"/>
     </row>
-    <row r="303" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="11"/>
       <c r="C303" s="10"/>
@@ -8218,7 +8218,7 @@
       <c r="V303" s="4"/>
       <c r="W303" s="4"/>
     </row>
-    <row r="304" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="C304" s="10"/>
@@ -8243,7 +8243,7 @@
       <c r="V304" s="4"/>
       <c r="W304" s="4"/>
     </row>
-    <row r="305" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="C305" s="10"/>
@@ -8268,7 +8268,7 @@
       <c r="V305" s="4"/>
       <c r="W305" s="4"/>
     </row>
-    <row r="306" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="C306" s="10"/>
@@ -8293,7 +8293,7 @@
       <c r="V306" s="4"/>
       <c r="W306" s="4"/>
     </row>
-    <row r="307" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="C307" s="10"/>
@@ -8318,7 +8318,7 @@
       <c r="V307" s="4"/>
       <c r="W307" s="4"/>
     </row>
-    <row r="308" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="C308" s="10"/>
@@ -8343,7 +8343,7 @@
       <c r="V308" s="4"/>
       <c r="W308" s="4"/>
     </row>
-    <row r="309" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="C309" s="10"/>
@@ -8368,7 +8368,7 @@
       <c r="V309" s="4"/>
       <c r="W309" s="4"/>
     </row>
-    <row r="310" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="C310" s="10"/>
@@ -8393,7 +8393,7 @@
       <c r="V310" s="4"/>
       <c r="W310" s="4"/>
     </row>
-    <row r="311" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" s="11"/>
       <c r="C311" s="10"/>
@@ -8418,7 +8418,7 @@
       <c r="V311" s="4"/>
       <c r="W311" s="4"/>
     </row>
-    <row r="312" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="C312" s="10"/>
@@ -8443,7 +8443,7 @@
       <c r="V312" s="4"/>
       <c r="W312" s="4"/>
     </row>
-    <row r="313" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="C313" s="10"/>
@@ -8468,7 +8468,7 @@
       <c r="V313" s="4"/>
       <c r="W313" s="4"/>
     </row>
-    <row r="314" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="11"/>
       <c r="C314" s="10"/>
@@ -8493,7 +8493,7 @@
       <c r="V314" s="4"/>
       <c r="W314" s="4"/>
     </row>
-    <row r="315" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="C315" s="10"/>
@@ -8518,7 +8518,7 @@
       <c r="V315" s="4"/>
       <c r="W315" s="4"/>
     </row>
-    <row r="316" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="C316" s="10"/>
@@ -8543,7 +8543,7 @@
       <c r="V316" s="4"/>
       <c r="W316" s="4"/>
     </row>
-    <row r="317" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="11"/>
       <c r="C317" s="10"/>
@@ -8568,7 +8568,7 @@
       <c r="V317" s="4"/>
       <c r="W317" s="4"/>
     </row>
-    <row r="318" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="C318" s="10"/>
@@ -8593,7 +8593,7 @@
       <c r="V318" s="4"/>
       <c r="W318" s="4"/>
     </row>
-    <row r="319" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="C319" s="10"/>
@@ -8618,7 +8618,7 @@
       <c r="V319" s="4"/>
       <c r="W319" s="4"/>
     </row>
-    <row r="320" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="C320" s="10"/>
@@ -8643,7 +8643,7 @@
       <c r="V320" s="4"/>
       <c r="W320" s="4"/>
     </row>
-    <row r="321" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="C321" s="10"/>
@@ -8668,7 +8668,7 @@
       <c r="V321" s="4"/>
       <c r="W321" s="4"/>
     </row>
-    <row r="322" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="C322" s="10"/>
@@ -8693,7 +8693,7 @@
       <c r="V322" s="4"/>
       <c r="W322" s="4"/>
     </row>
-    <row r="323" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="C323" s="10"/>
@@ -8718,7 +8718,7 @@
       <c r="V323" s="4"/>
       <c r="W323" s="4"/>
     </row>
-    <row r="324" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="C324" s="10"/>
@@ -8743,7 +8743,7 @@
       <c r="V324" s="4"/>
       <c r="W324" s="4"/>
     </row>
-    <row r="325" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="C325" s="10"/>
@@ -8768,7 +8768,7 @@
       <c r="V325" s="4"/>
       <c r="W325" s="4"/>
     </row>
-    <row r="326" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="C326" s="10"/>
@@ -8793,7 +8793,7 @@
       <c r="V326" s="4"/>
       <c r="W326" s="4"/>
     </row>
-    <row r="327" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="C327" s="10"/>
@@ -8818,7 +8818,7 @@
       <c r="V327" s="4"/>
       <c r="W327" s="4"/>
     </row>
-    <row r="328" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="C328" s="10"/>
@@ -8843,7 +8843,7 @@
       <c r="V328" s="4"/>
       <c r="W328" s="4"/>
     </row>
-    <row r="329" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="C329" s="10"/>
@@ -8868,7 +8868,7 @@
       <c r="V329" s="4"/>
       <c r="W329" s="4"/>
     </row>
-    <row r="330" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="10"/>
@@ -8893,7 +8893,7 @@
       <c r="V330" s="4"/>
       <c r="W330" s="4"/>
     </row>
-    <row r="331" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="10"/>
@@ -8918,7 +8918,7 @@
       <c r="V331" s="4"/>
       <c r="W331" s="4"/>
     </row>
-    <row r="332" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="10"/>
@@ -8943,7 +8943,7 @@
       <c r="V332" s="4"/>
       <c r="W332" s="4"/>
     </row>
-    <row r="333" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="10"/>
@@ -8968,7 +8968,7 @@
       <c r="V333" s="4"/>
       <c r="W333" s="4"/>
     </row>
-    <row r="334" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="10"/>
@@ -8993,7 +8993,7 @@
       <c r="V334" s="4"/>
       <c r="W334" s="4"/>
     </row>
-    <row r="335" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="10"/>
@@ -9018,7 +9018,7 @@
       <c r="V335" s="4"/>
       <c r="W335" s="4"/>
     </row>
-    <row r="336" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="10"/>
@@ -9043,7 +9043,7 @@
       <c r="V336" s="4"/>
       <c r="W336" s="4"/>
     </row>
-    <row r="337" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="10"/>
@@ -9068,7 +9068,7 @@
       <c r="V337" s="4"/>
       <c r="W337" s="4"/>
     </row>
-    <row r="338" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="10"/>
@@ -9093,7 +9093,7 @@
       <c r="V338" s="4"/>
       <c r="W338" s="4"/>
     </row>
-    <row r="339" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="10"/>
@@ -9118,7 +9118,7 @@
       <c r="V339" s="4"/>
       <c r="W339" s="4"/>
     </row>
-    <row r="340" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="C340" s="10"/>
@@ -9143,7 +9143,7 @@
       <c r="V340" s="4"/>
       <c r="W340" s="4"/>
     </row>
-    <row r="341" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="10"/>
@@ -9168,7 +9168,7 @@
       <c r="V341" s="4"/>
       <c r="W341" s="4"/>
     </row>
-    <row r="342" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="10"/>
@@ -9193,7 +9193,7 @@
       <c r="V342" s="4"/>
       <c r="W342" s="4"/>
     </row>
-    <row r="343" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="10"/>
@@ -9218,7 +9218,7 @@
       <c r="V343" s="4"/>
       <c r="W343" s="4"/>
     </row>
-    <row r="344" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="10"/>
@@ -9243,7 +9243,7 @@
       <c r="V344" s="4"/>
       <c r="W344" s="4"/>
     </row>
-    <row r="345" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="10"/>
@@ -9268,7 +9268,7 @@
       <c r="V345" s="4"/>
       <c r="W345" s="4"/>
     </row>
-    <row r="346" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="10"/>
@@ -9293,7 +9293,7 @@
       <c r="V346" s="4"/>
       <c r="W346" s="4"/>
     </row>
-    <row r="347" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="10"/>
@@ -9318,7 +9318,7 @@
       <c r="V347" s="4"/>
       <c r="W347" s="4"/>
     </row>
-    <row r="348" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="C348" s="10"/>
@@ -9343,7 +9343,7 @@
       <c r="V348" s="4"/>
       <c r="W348" s="4"/>
     </row>
-    <row r="349" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="C349" s="10"/>
@@ -9368,7 +9368,7 @@
       <c r="V349" s="4"/>
       <c r="W349" s="4"/>
     </row>
-    <row r="350" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="C350" s="10"/>
@@ -9393,7 +9393,7 @@
       <c r="V350" s="4"/>
       <c r="W350" s="4"/>
     </row>
-    <row r="351" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="C351" s="10"/>
@@ -9418,7 +9418,7 @@
       <c r="V351" s="4"/>
       <c r="W351" s="4"/>
     </row>
-    <row r="352" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="C352" s="10"/>
@@ -9443,7 +9443,7 @@
       <c r="V352" s="4"/>
       <c r="W352" s="4"/>
     </row>
-    <row r="353" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="C353" s="10"/>
@@ -9468,7 +9468,7 @@
       <c r="V353" s="4"/>
       <c r="W353" s="4"/>
     </row>
-    <row r="354" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="C354" s="10"/>
@@ -9493,7 +9493,7 @@
       <c r="V354" s="4"/>
       <c r="W354" s="4"/>
     </row>
-    <row r="355" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="C355" s="10"/>
@@ -9518,7 +9518,7 @@
       <c r="V355" s="4"/>
       <c r="W355" s="4"/>
     </row>
-    <row r="356" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="C356" s="10"/>
@@ -9543,7 +9543,7 @@
       <c r="V356" s="4"/>
       <c r="W356" s="4"/>
     </row>
-    <row r="357" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="C357" s="10"/>
@@ -9568,7 +9568,7 @@
       <c r="V357" s="4"/>
       <c r="W357" s="4"/>
     </row>
-    <row r="358" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="C358" s="10"/>
@@ -9593,7 +9593,7 @@
       <c r="V358" s="4"/>
       <c r="W358" s="4"/>
     </row>
-    <row r="359" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="C359" s="10"/>
@@ -9618,7 +9618,7 @@
       <c r="V359" s="4"/>
       <c r="W359" s="4"/>
     </row>
-    <row r="360" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
       <c r="B360" s="11"/>
       <c r="C360" s="10"/>
@@ -9643,7 +9643,7 @@
       <c r="V360" s="4"/>
       <c r="W360" s="4"/>
     </row>
-    <row r="361" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="C361" s="10"/>
@@ -9668,7 +9668,7 @@
       <c r="V361" s="4"/>
       <c r="W361" s="4"/>
     </row>
-    <row r="362" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="C362" s="10"/>
@@ -9693,7 +9693,7 @@
       <c r="V362" s="4"/>
       <c r="W362" s="4"/>
     </row>
-    <row r="363" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="C363" s="10"/>
@@ -9718,7 +9718,7 @@
       <c r="V363" s="4"/>
       <c r="W363" s="4"/>
     </row>
-    <row r="364" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="10"/>
@@ -9743,7 +9743,7 @@
       <c r="V364" s="4"/>
       <c r="W364" s="4"/>
     </row>
-    <row r="365" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="10"/>
@@ -9768,7 +9768,7 @@
       <c r="V365" s="4"/>
       <c r="W365" s="4"/>
     </row>
-    <row r="366" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="10"/>
@@ -9793,7 +9793,7 @@
       <c r="V366" s="4"/>
       <c r="W366" s="4"/>
     </row>
-    <row r="367" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="10"/>
@@ -9818,7 +9818,7 @@
       <c r="V367" s="4"/>
       <c r="W367" s="4"/>
     </row>
-    <row r="368" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="10"/>
@@ -9843,7 +9843,7 @@
       <c r="V368" s="4"/>
       <c r="W368" s="4"/>
     </row>
-    <row r="369" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="10"/>
@@ -9868,7 +9868,7 @@
       <c r="V369" s="4"/>
       <c r="W369" s="4"/>
     </row>
-    <row r="370" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="C370" s="10"/>
@@ -9893,7 +9893,7 @@
       <c r="V370" s="4"/>
       <c r="W370" s="4"/>
     </row>
-    <row r="371" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="10"/>
@@ -9918,7 +9918,7 @@
       <c r="V371" s="4"/>
       <c r="W371" s="4"/>
     </row>
-    <row r="372" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="10"/>
@@ -9943,7 +9943,7 @@
       <c r="V372" s="4"/>
       <c r="W372" s="4"/>
     </row>
-    <row r="373" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="10"/>
@@ -9968,7 +9968,7 @@
       <c r="V373" s="4"/>
       <c r="W373" s="4"/>
     </row>
-    <row r="374" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="10"/>
@@ -9993,7 +9993,7 @@
       <c r="V374" s="4"/>
       <c r="W374" s="4"/>
     </row>
-    <row r="375" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="10"/>
@@ -10018,7 +10018,7 @@
       <c r="V375" s="4"/>
       <c r="W375" s="4"/>
     </row>
-    <row r="376" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="C376" s="10"/>
@@ -10043,7 +10043,7 @@
       <c r="V376" s="4"/>
       <c r="W376" s="4"/>
     </row>
-    <row r="377" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="C377" s="10"/>
@@ -10068,7 +10068,7 @@
       <c r="V377" s="4"/>
       <c r="W377" s="4"/>
     </row>
-    <row r="378" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="10"/>
@@ -10093,7 +10093,7 @@
       <c r="V378" s="4"/>
       <c r="W378" s="4"/>
     </row>
-    <row r="379" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="10"/>
@@ -10118,7 +10118,7 @@
       <c r="V379" s="4"/>
       <c r="W379" s="4"/>
     </row>
-    <row r="380" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="10"/>
@@ -10143,7 +10143,7 @@
       <c r="V380" s="4"/>
       <c r="W380" s="4"/>
     </row>
-    <row r="381" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="C381" s="10"/>
@@ -10168,7 +10168,7 @@
       <c r="V381" s="4"/>
       <c r="W381" s="4"/>
     </row>
-    <row r="382" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="C382" s="10"/>
@@ -10193,7 +10193,7 @@
       <c r="V382" s="4"/>
       <c r="W382" s="4"/>
     </row>
-    <row r="383" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="C383" s="10"/>
@@ -10218,7 +10218,7 @@
       <c r="V383" s="4"/>
       <c r="W383" s="4"/>
     </row>
-    <row r="384" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="10"/>
       <c r="B384" s="11"/>
       <c r="C384" s="10"/>
@@ -10243,7 +10243,7 @@
       <c r="V384" s="4"/>
       <c r="W384" s="4"/>
     </row>
-    <row r="385" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="C385" s="10"/>
@@ -10268,7 +10268,7 @@
       <c r="V385" s="4"/>
       <c r="W385" s="4"/>
     </row>
-    <row r="386" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="C386" s="10"/>
@@ -10293,7 +10293,7 @@
       <c r="V386" s="4"/>
       <c r="W386" s="4"/>
     </row>
-    <row r="387" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="C387" s="10"/>
@@ -10318,7 +10318,7 @@
       <c r="V387" s="4"/>
       <c r="W387" s="4"/>
     </row>
-    <row r="388" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="C388" s="10"/>
@@ -10343,7 +10343,7 @@
       <c r="V388" s="4"/>
       <c r="W388" s="4"/>
     </row>
-    <row r="389" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="B389" s="11"/>
       <c r="C389" s="10"/>
@@ -10368,7 +10368,7 @@
       <c r="V389" s="4"/>
       <c r="W389" s="4"/>
     </row>
-    <row r="390" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" s="11"/>
       <c r="C390" s="10"/>
@@ -10393,7 +10393,7 @@
       <c r="V390" s="4"/>
       <c r="W390" s="4"/>
     </row>
-    <row r="391" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="B391" s="11"/>
       <c r="C391" s="10"/>
@@ -10418,7 +10418,7 @@
       <c r="V391" s="4"/>
       <c r="W391" s="4"/>
     </row>
-    <row r="392" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" s="11"/>
       <c r="C392" s="10"/>
@@ -10443,7 +10443,7 @@
       <c r="V392" s="4"/>
       <c r="W392" s="4"/>
     </row>
-    <row r="393" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
       <c r="B393" s="11"/>
       <c r="C393" s="10"/>
@@ -10468,7 +10468,7 @@
       <c r="V393" s="4"/>
       <c r="W393" s="4"/>
     </row>
-    <row r="394" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="10"/>
       <c r="B394" s="11"/>
       <c r="C394" s="10"/>
@@ -10493,7 +10493,7 @@
       <c r="V394" s="4"/>
       <c r="W394" s="4"/>
     </row>
-    <row r="395" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="10"/>
       <c r="B395" s="11"/>
       <c r="C395" s="10"/>
@@ -10518,7 +10518,7 @@
       <c r="V395" s="4"/>
       <c r="W395" s="4"/>
     </row>
-    <row r="396" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="11"/>
       <c r="C396" s="10"/>
@@ -10543,7 +10543,7 @@
       <c r="V396" s="4"/>
       <c r="W396" s="4"/>
     </row>
-    <row r="397" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="10"/>
       <c r="B397" s="11"/>
       <c r="C397" s="10"/>
@@ -10568,7 +10568,7 @@
       <c r="V397" s="4"/>
       <c r="W397" s="4"/>
     </row>
-    <row r="398" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="10"/>
       <c r="B398" s="11"/>
       <c r="C398" s="10"/>
@@ -10593,7 +10593,7 @@
       <c r="V398" s="4"/>
       <c r="W398" s="4"/>
     </row>
-    <row r="399" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
       <c r="B399" s="11"/>
       <c r="C399" s="10"/>
@@ -10618,7 +10618,7 @@
       <c r="V399" s="4"/>
       <c r="W399" s="4"/>
     </row>
-    <row r="400" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="10"/>
       <c r="B400" s="11"/>
       <c r="C400" s="10"/>
@@ -10643,7 +10643,7 @@
       <c r="V400" s="4"/>
       <c r="W400" s="4"/>
     </row>
-    <row r="401" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="10"/>
       <c r="B401" s="11"/>
       <c r="C401" s="10"/>
@@ -10668,7 +10668,7 @@
       <c r="V401" s="4"/>
       <c r="W401" s="4"/>
     </row>
-    <row r="402" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="10"/>
       <c r="B402" s="11"/>
       <c r="C402" s="10"/>
@@ -10693,7 +10693,7 @@
       <c r="V402" s="4"/>
       <c r="W402" s="4"/>
     </row>
-    <row r="403" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="10"/>
       <c r="B403" s="11"/>
       <c r="C403" s="10"/>
@@ -10718,7 +10718,7 @@
       <c r="V403" s="4"/>
       <c r="W403" s="4"/>
     </row>
-    <row r="404" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="10"/>
       <c r="B404" s="11"/>
       <c r="C404" s="10"/>
@@ -10743,7 +10743,7 @@
       <c r="V404" s="4"/>
       <c r="W404" s="4"/>
     </row>
-    <row r="405" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="10"/>
       <c r="B405" s="11"/>
       <c r="C405" s="10"/>
@@ -10768,7 +10768,7 @@
       <c r="V405" s="4"/>
       <c r="W405" s="4"/>
     </row>
-    <row r="406" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="10"/>
       <c r="B406" s="11"/>
       <c r="C406" s="10"/>
@@ -10793,7 +10793,7 @@
       <c r="V406" s="4"/>
       <c r="W406" s="4"/>
     </row>
-    <row r="407" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="10"/>
       <c r="B407" s="11"/>
       <c r="C407" s="10"/>
@@ -10818,7 +10818,7 @@
       <c r="V407" s="4"/>
       <c r="W407" s="4"/>
     </row>
-    <row r="408" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="10"/>
       <c r="B408" s="11"/>
       <c r="C408" s="10"/>
@@ -10843,7 +10843,7 @@
       <c r="V408" s="4"/>
       <c r="W408" s="4"/>
     </row>
-    <row r="409" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="10"/>
       <c r="B409" s="11"/>
       <c r="C409" s="10"/>
@@ -10868,7 +10868,7 @@
       <c r="V409" s="4"/>
       <c r="W409" s="4"/>
     </row>
-    <row r="410" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="10"/>
       <c r="B410" s="11"/>
       <c r="C410" s="10"/>
@@ -10893,7 +10893,7 @@
       <c r="V410" s="4"/>
       <c r="W410" s="4"/>
     </row>
-    <row r="411" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="10"/>
       <c r="B411" s="11"/>
       <c r="C411" s="10"/>
@@ -10918,7 +10918,7 @@
       <c r="V411" s="4"/>
       <c r="W411" s="4"/>
     </row>
-    <row r="412" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="10"/>
       <c r="B412" s="11"/>
       <c r="C412" s="10"/>
@@ -10943,7 +10943,7 @@
       <c r="V412" s="4"/>
       <c r="W412" s="4"/>
     </row>
-    <row r="413" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="10"/>
       <c r="B413" s="11"/>
       <c r="C413" s="10"/>
@@ -10968,7 +10968,7 @@
       <c r="V413" s="4"/>
       <c r="W413" s="4"/>
     </row>
-    <row r="414" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="10"/>
       <c r="B414" s="11"/>
       <c r="C414" s="10"/>
@@ -10993,7 +10993,7 @@
       <c r="V414" s="4"/>
       <c r="W414" s="4"/>
     </row>
-    <row r="415" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="10"/>
       <c r="B415" s="11"/>
       <c r="C415" s="10"/>
@@ -11018,7 +11018,7 @@
       <c r="V415" s="4"/>
       <c r="W415" s="4"/>
     </row>
-    <row r="416" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="10"/>
       <c r="B416" s="11"/>
       <c r="C416" s="10"/>
@@ -11043,7 +11043,7 @@
       <c r="V416" s="4"/>
       <c r="W416" s="4"/>
     </row>
-    <row r="417" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="10"/>
       <c r="B417" s="11"/>
       <c r="C417" s="10"/>
@@ -11068,7 +11068,7 @@
       <c r="V417" s="4"/>
       <c r="W417" s="4"/>
     </row>
-    <row r="418" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="10"/>
       <c r="B418" s="11"/>
       <c r="C418" s="10"/>
@@ -11093,7 +11093,7 @@
       <c r="V418" s="4"/>
       <c r="W418" s="4"/>
     </row>
-    <row r="419" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="10"/>
       <c r="B419" s="11"/>
       <c r="C419" s="10"/>
@@ -11118,7 +11118,7 @@
       <c r="V419" s="4"/>
       <c r="W419" s="4"/>
     </row>
-    <row r="420" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="10"/>
       <c r="B420" s="11"/>
       <c r="C420" s="10"/>
@@ -11143,7 +11143,7 @@
       <c r="V420" s="4"/>
       <c r="W420" s="4"/>
     </row>
-    <row r="421" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="10"/>
       <c r="B421" s="11"/>
       <c r="C421" s="10"/>
@@ -11168,7 +11168,7 @@
       <c r="V421" s="4"/>
       <c r="W421" s="4"/>
     </row>
-    <row r="422" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="10"/>
       <c r="B422" s="11"/>
       <c r="C422" s="10"/>
@@ -11193,7 +11193,7 @@
       <c r="V422" s="4"/>
       <c r="W422" s="4"/>
     </row>
-    <row r="423" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="10"/>
       <c r="B423" s="11"/>
       <c r="C423" s="10"/>
@@ -11218,7 +11218,7 @@
       <c r="V423" s="4"/>
       <c r="W423" s="4"/>
     </row>
-    <row r="424" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="10"/>
       <c r="B424" s="11"/>
       <c r="C424" s="10"/>
@@ -11243,7 +11243,7 @@
       <c r="V424" s="4"/>
       <c r="W424" s="4"/>
     </row>
-    <row r="425" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="10"/>
       <c r="B425" s="11"/>
       <c r="C425" s="10"/>
@@ -11268,7 +11268,7 @@
       <c r="V425" s="4"/>
       <c r="W425" s="4"/>
     </row>
-    <row r="426" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="C426" s="10"/>
@@ -11293,7 +11293,7 @@
       <c r="V426" s="4"/>
       <c r="W426" s="4"/>
     </row>
-    <row r="427" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="10"/>
       <c r="B427" s="11"/>
       <c r="C427" s="10"/>
@@ -11318,7 +11318,7 @@
       <c r="V427" s="4"/>
       <c r="W427" s="4"/>
     </row>
-    <row r="428" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="10"/>
       <c r="B428" s="11"/>
       <c r="C428" s="10"/>
@@ -11343,7 +11343,7 @@
       <c r="V428" s="4"/>
       <c r="W428" s="4"/>
     </row>
-    <row r="429" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="10"/>
       <c r="B429" s="11"/>
       <c r="C429" s="10"/>
@@ -11368,7 +11368,7 @@
       <c r="V429" s="4"/>
       <c r="W429" s="4"/>
     </row>
-    <row r="430" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="10"/>
       <c r="B430" s="11"/>
       <c r="C430" s="10"/>
@@ -11393,7 +11393,7 @@
       <c r="V430" s="4"/>
       <c r="W430" s="4"/>
     </row>
-    <row r="431" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="10"/>
       <c r="B431" s="11"/>
       <c r="C431" s="10"/>
@@ -11418,7 +11418,7 @@
       <c r="V431" s="4"/>
       <c r="W431" s="4"/>
     </row>
-    <row r="432" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="10"/>
       <c r="B432" s="11"/>
       <c r="C432" s="10"/>
@@ -11443,7 +11443,7 @@
       <c r="V432" s="4"/>
       <c r="W432" s="4"/>
     </row>
-    <row r="433" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="10"/>
       <c r="B433" s="11"/>
       <c r="C433" s="10"/>
@@ -11468,7 +11468,7 @@
       <c r="V433" s="4"/>
       <c r="W433" s="4"/>
     </row>
-    <row r="434" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="10"/>
       <c r="B434" s="11"/>
       <c r="C434" s="10"/>
@@ -11493,7 +11493,7 @@
       <c r="V434" s="4"/>
       <c r="W434" s="4"/>
     </row>
-    <row r="435" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="10"/>
       <c r="B435" s="11"/>
       <c r="C435" s="10"/>
@@ -11518,7 +11518,7 @@
       <c r="V435" s="4"/>
       <c r="W435" s="4"/>
     </row>
-    <row r="436" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="10"/>
       <c r="B436" s="11"/>
       <c r="C436" s="10"/>
@@ -11543,7 +11543,7 @@
       <c r="V436" s="4"/>
       <c r="W436" s="4"/>
     </row>
-    <row r="437" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="10"/>
       <c r="B437" s="11"/>
       <c r="C437" s="10"/>
@@ -11568,7 +11568,7 @@
       <c r="V437" s="4"/>
       <c r="W437" s="4"/>
     </row>
-    <row r="438" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="10"/>
       <c r="B438" s="11"/>
       <c r="C438" s="10"/>
@@ -11593,7 +11593,7 @@
       <c r="V438" s="4"/>
       <c r="W438" s="4"/>
     </row>
-    <row r="439" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="10"/>
       <c r="B439" s="11"/>
       <c r="C439" s="10"/>
@@ -11618,7 +11618,7 @@
       <c r="V439" s="4"/>
       <c r="W439" s="4"/>
     </row>
-    <row r="440" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="10"/>
       <c r="B440" s="11"/>
       <c r="C440" s="10"/>
@@ -11643,7 +11643,7 @@
       <c r="V440" s="4"/>
       <c r="W440" s="4"/>
     </row>
-    <row r="441" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="10"/>
       <c r="B441" s="11"/>
       <c r="C441" s="10"/>
@@ -11668,7 +11668,7 @@
       <c r="V441" s="4"/>
       <c r="W441" s="4"/>
     </row>
-    <row r="442" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="10"/>
       <c r="B442" s="11"/>
       <c r="C442" s="10"/>
@@ -11693,7 +11693,7 @@
       <c r="V442" s="4"/>
       <c r="W442" s="4"/>
     </row>
-    <row r="443" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="10"/>
       <c r="B443" s="11"/>
       <c r="C443" s="10"/>
@@ -11718,7 +11718,7 @@
       <c r="V443" s="4"/>
       <c r="W443" s="4"/>
     </row>
-    <row r="444" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="10"/>
       <c r="B444" s="11"/>
       <c r="C444" s="10"/>
@@ -11743,7 +11743,7 @@
       <c r="V444" s="4"/>
       <c r="W444" s="4"/>
     </row>
-    <row r="445" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="10"/>
       <c r="B445" s="11"/>
       <c r="C445" s="10"/>
@@ -11768,7 +11768,7 @@
       <c r="V445" s="4"/>
       <c r="W445" s="4"/>
     </row>
-    <row r="446" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="10"/>
       <c r="B446" s="11"/>
       <c r="C446" s="10"/>
@@ -11793,7 +11793,7 @@
       <c r="V446" s="4"/>
       <c r="W446" s="4"/>
     </row>
-    <row r="447" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="10"/>
       <c r="B447" s="11"/>
       <c r="C447" s="10"/>
@@ -11818,7 +11818,7 @@
       <c r="V447" s="4"/>
       <c r="W447" s="4"/>
     </row>
-    <row r="448" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="10"/>
       <c r="B448" s="11"/>
       <c r="C448" s="10"/>
@@ -11843,7 +11843,7 @@
       <c r="V448" s="4"/>
       <c r="W448" s="4"/>
     </row>
-    <row r="449" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="10"/>
       <c r="B449" s="11"/>
       <c r="C449" s="10"/>
@@ -11868,7 +11868,7 @@
       <c r="V449" s="4"/>
       <c r="W449" s="4"/>
     </row>
-    <row r="450" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="10"/>
       <c r="B450" s="11"/>
       <c r="C450" s="10"/>
@@ -11893,7 +11893,7 @@
       <c r="V450" s="4"/>
       <c r="W450" s="4"/>
     </row>
-    <row r="451" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="10"/>
       <c r="B451" s="11"/>
       <c r="C451" s="10"/>
@@ -11918,7 +11918,7 @@
       <c r="V451" s="4"/>
       <c r="W451" s="4"/>
     </row>
-    <row r="452" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="10"/>
       <c r="B452" s="11"/>
       <c r="C452" s="10"/>
@@ -11943,7 +11943,7 @@
       <c r="V452" s="4"/>
       <c r="W452" s="4"/>
     </row>
-    <row r="453" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="10"/>
       <c r="B453" s="11"/>
       <c r="C453" s="10"/>
@@ -11968,7 +11968,7 @@
       <c r="V453" s="4"/>
       <c r="W453" s="4"/>
     </row>
-    <row r="454" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="10"/>
       <c r="B454" s="11"/>
       <c r="C454" s="10"/>
@@ -11993,7 +11993,7 @@
       <c r="V454" s="4"/>
       <c r="W454" s="4"/>
     </row>
-    <row r="455" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="10"/>
       <c r="B455" s="11"/>
       <c r="C455" s="10"/>
@@ -12018,7 +12018,7 @@
       <c r="V455" s="4"/>
       <c r="W455" s="4"/>
     </row>
-    <row r="456" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="10"/>
       <c r="B456" s="11"/>
       <c r="C456" s="10"/>
@@ -12043,7 +12043,7 @@
       <c r="V456" s="4"/>
       <c r="W456" s="4"/>
     </row>
-    <row r="457" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="10"/>
       <c r="B457" s="11"/>
       <c r="C457" s="10"/>
@@ -12068,7 +12068,7 @@
       <c r="V457" s="4"/>
       <c r="W457" s="4"/>
     </row>
-    <row r="458" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="10"/>
       <c r="B458" s="11"/>
       <c r="C458" s="10"/>
@@ -12093,7 +12093,7 @@
       <c r="V458" s="4"/>
       <c r="W458" s="4"/>
     </row>
-    <row r="459" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="10"/>
       <c r="B459" s="11"/>
       <c r="C459" s="10"/>
@@ -12118,7 +12118,7 @@
       <c r="V459" s="4"/>
       <c r="W459" s="4"/>
     </row>
-    <row r="460" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="10"/>
       <c r="B460" s="11"/>
       <c r="C460" s="10"/>
@@ -12143,7 +12143,7 @@
       <c r="V460" s="4"/>
       <c r="W460" s="4"/>
     </row>
-    <row r="461" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="10"/>
       <c r="B461" s="11"/>
       <c r="C461" s="10"/>
@@ -12168,7 +12168,7 @@
       <c r="V461" s="4"/>
       <c r="W461" s="4"/>
     </row>
-    <row r="462" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="10"/>
       <c r="B462" s="11"/>
       <c r="C462" s="10"/>
@@ -12193,7 +12193,7 @@
       <c r="V462" s="4"/>
       <c r="W462" s="4"/>
     </row>
-    <row r="463" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="10"/>
       <c r="B463" s="11"/>
       <c r="C463" s="10"/>
@@ -12218,7 +12218,7 @@
       <c r="V463" s="4"/>
       <c r="W463" s="4"/>
     </row>
-    <row r="464" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="10"/>
       <c r="B464" s="11"/>
       <c r="C464" s="10"/>
@@ -12243,7 +12243,7 @@
       <c r="V464" s="4"/>
       <c r="W464" s="4"/>
     </row>
-    <row r="465" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="10"/>
       <c r="B465" s="11"/>
       <c r="C465" s="10"/>
@@ -12268,7 +12268,7 @@
       <c r="V465" s="4"/>
       <c r="W465" s="4"/>
     </row>
-    <row r="466" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="10"/>
       <c r="B466" s="11"/>
       <c r="C466" s="10"/>
@@ -12293,7 +12293,7 @@
       <c r="V466" s="4"/>
       <c r="W466" s="4"/>
     </row>
-    <row r="467" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="10"/>
       <c r="B467" s="11"/>
       <c r="C467" s="10"/>
@@ -12318,7 +12318,7 @@
       <c r="V467" s="4"/>
       <c r="W467" s="4"/>
     </row>
-    <row r="468" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="10"/>
       <c r="B468" s="11"/>
       <c r="C468" s="10"/>
@@ -12343,7 +12343,7 @@
       <c r="V468" s="4"/>
       <c r="W468" s="4"/>
     </row>
-    <row r="469" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10"/>
       <c r="B469" s="11"/>
       <c r="C469" s="10"/>
@@ -12368,7 +12368,7 @@
       <c r="V469" s="4"/>
       <c r="W469" s="4"/>
     </row>
-    <row r="470" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10"/>
       <c r="B470" s="11"/>
       <c r="C470" s="10"/>
@@ -12393,7 +12393,7 @@
       <c r="V470" s="4"/>
       <c r="W470" s="4"/>
     </row>
-    <row r="471" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10"/>
       <c r="B471" s="11"/>
       <c r="C471" s="10"/>
@@ -12418,7 +12418,7 @@
       <c r="V471" s="4"/>
       <c r="W471" s="4"/>
     </row>
-    <row r="472" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10"/>
       <c r="B472" s="11"/>
       <c r="C472" s="10"/>
@@ -12443,7 +12443,7 @@
       <c r="V472" s="4"/>
       <c r="W472" s="4"/>
     </row>
-    <row r="473" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="10"/>
       <c r="B473" s="11"/>
       <c r="C473" s="10"/>
@@ -12468,7 +12468,7 @@
       <c r="V473" s="4"/>
       <c r="W473" s="4"/>
     </row>
-    <row r="474" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="10"/>
       <c r="B474" s="11"/>
       <c r="C474" s="10"/>
@@ -12493,7 +12493,7 @@
       <c r="V474" s="4"/>
       <c r="W474" s="4"/>
     </row>
-    <row r="475" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="10"/>
       <c r="B475" s="11"/>
       <c r="C475" s="10"/>
@@ -12518,7 +12518,7 @@
       <c r="V475" s="4"/>
       <c r="W475" s="4"/>
     </row>
-    <row r="476" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="10"/>
       <c r="B476" s="11"/>
       <c r="C476" s="10"/>
@@ -12543,7 +12543,7 @@
       <c r="V476" s="4"/>
       <c r="W476" s="4"/>
     </row>
-    <row r="477" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="10"/>
       <c r="B477" s="11"/>
       <c r="C477" s="10"/>
@@ -12568,7 +12568,7 @@
       <c r="V477" s="4"/>
       <c r="W477" s="4"/>
     </row>
-    <row r="478" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="10"/>
       <c r="B478" s="11"/>
       <c r="C478" s="10"/>
@@ -12593,7 +12593,7 @@
       <c r="V478" s="4"/>
       <c r="W478" s="4"/>
     </row>
-    <row r="479" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="10"/>
       <c r="B479" s="11"/>
       <c r="C479" s="10"/>
@@ -12618,7 +12618,7 @@
       <c r="V479" s="4"/>
       <c r="W479" s="4"/>
     </row>
-    <row r="480" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="10"/>
       <c r="B480" s="11"/>
       <c r="C480" s="10"/>
@@ -12643,7 +12643,7 @@
       <c r="V480" s="4"/>
       <c r="W480" s="4"/>
     </row>
-    <row r="481" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="10"/>
       <c r="B481" s="11"/>
       <c r="C481" s="10"/>
@@ -12668,7 +12668,7 @@
       <c r="V481" s="4"/>
       <c r="W481" s="4"/>
     </row>
-    <row r="482" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="10"/>
       <c r="B482" s="11"/>
       <c r="C482" s="10"/>
@@ -12693,7 +12693,7 @@
       <c r="V482" s="4"/>
       <c r="W482" s="4"/>
     </row>
-    <row r="483" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="10"/>
       <c r="B483" s="11"/>
       <c r="C483" s="10"/>
@@ -12718,7 +12718,7 @@
       <c r="V483" s="4"/>
       <c r="W483" s="4"/>
     </row>
-    <row r="484" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="10"/>
       <c r="B484" s="11"/>
       <c r="C484" s="10"/>
@@ -12743,7 +12743,7 @@
       <c r="V484" s="4"/>
       <c r="W484" s="4"/>
     </row>
-    <row r="485" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="10"/>
       <c r="B485" s="11"/>
       <c r="C485" s="10"/>
@@ -12768,7 +12768,7 @@
       <c r="V485" s="4"/>
       <c r="W485" s="4"/>
     </row>
-    <row r="486" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="10"/>
       <c r="B486" s="11"/>
       <c r="C486" s="10"/>
@@ -12793,7 +12793,7 @@
       <c r="V486" s="4"/>
       <c r="W486" s="4"/>
     </row>
-    <row r="487" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="10"/>
       <c r="B487" s="11"/>
       <c r="C487" s="10"/>
@@ -12818,7 +12818,7 @@
       <c r="V487" s="4"/>
       <c r="W487" s="4"/>
     </row>
-    <row r="488" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="10"/>
       <c r="B488" s="11"/>
       <c r="C488" s="10"/>
@@ -12843,7 +12843,7 @@
       <c r="V488" s="4"/>
       <c r="W488" s="4"/>
     </row>
-    <row r="489" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="11"/>
       <c r="C489" s="10"/>
@@ -12868,7 +12868,7 @@
       <c r="V489" s="4"/>
       <c r="W489" s="4"/>
     </row>
-    <row r="490" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="10"/>
       <c r="B490" s="11"/>
       <c r="C490" s="10"/>
@@ -12893,7 +12893,7 @@
       <c r="V490" s="4"/>
       <c r="W490" s="4"/>
     </row>
-    <row r="491" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="10"/>
       <c r="B491" s="11"/>
       <c r="C491" s="10"/>
@@ -12918,7 +12918,7 @@
       <c r="V491" s="4"/>
       <c r="W491" s="4"/>
     </row>
-    <row r="492" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="10"/>
       <c r="B492" s="11"/>
       <c r="C492" s="10"/>
@@ -12943,7 +12943,7 @@
       <c r="V492" s="4"/>
       <c r="W492" s="4"/>
     </row>
-    <row r="493" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="10"/>
       <c r="B493" s="11"/>
       <c r="C493" s="10"/>
@@ -12968,7 +12968,7 @@
       <c r="V493" s="4"/>
       <c r="W493" s="4"/>
     </row>
-    <row r="494" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="10"/>
       <c r="B494" s="11"/>
       <c r="C494" s="10"/>
@@ -12993,7 +12993,7 @@
       <c r="V494" s="4"/>
       <c r="W494" s="4"/>
     </row>
-    <row r="495" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="10"/>
       <c r="B495" s="11"/>
       <c r="C495" s="10"/>
@@ -13018,7 +13018,7 @@
       <c r="V495" s="4"/>
       <c r="W495" s="4"/>
     </row>
-    <row r="496" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="10"/>
       <c r="B496" s="11"/>
       <c r="C496" s="10"/>
@@ -13043,7 +13043,7 @@
       <c r="V496" s="4"/>
       <c r="W496" s="4"/>
     </row>
-    <row r="497" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="10"/>
       <c r="B497" s="11"/>
       <c r="C497" s="10"/>
@@ -13068,7 +13068,7 @@
       <c r="V497" s="4"/>
       <c r="W497" s="4"/>
     </row>
-    <row r="498" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="11"/>
       <c r="C498" s="10"/>
@@ -13093,7 +13093,7 @@
       <c r="V498" s="4"/>
       <c r="W498" s="4"/>
     </row>
-    <row r="499" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="10"/>
       <c r="B499" s="11"/>
       <c r="C499" s="10"/>
@@ -13118,7 +13118,7 @@
       <c r="V499" s="4"/>
       <c r="W499" s="4"/>
     </row>
-    <row r="500" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="10"/>
       <c r="B500" s="11"/>
       <c r="C500" s="10"/>
@@ -13143,7 +13143,7 @@
       <c r="V500" s="4"/>
       <c r="W500" s="4"/>
     </row>
-    <row r="501" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="10"/>
       <c r="B501" s="11"/>
       <c r="C501" s="10"/>
@@ -13168,7 +13168,7 @@
       <c r="V501" s="4"/>
       <c r="W501" s="4"/>
     </row>
-    <row r="502" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="10"/>
       <c r="B502" s="11"/>
       <c r="C502" s="10"/>
@@ -13193,7 +13193,7 @@
       <c r="V502" s="4"/>
       <c r="W502" s="4"/>
     </row>
-    <row r="503" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="10"/>
       <c r="B503" s="11"/>
       <c r="C503" s="10"/>
@@ -13218,7 +13218,7 @@
       <c r="V503" s="4"/>
       <c r="W503" s="4"/>
     </row>
-    <row r="504" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="10"/>
       <c r="B504" s="11"/>
       <c r="C504" s="10"/>
@@ -13243,7 +13243,7 @@
       <c r="V504" s="4"/>
       <c r="W504" s="4"/>
     </row>
-    <row r="505" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="10"/>
       <c r="B505" s="11"/>
       <c r="C505" s="10"/>
@@ -13268,7 +13268,7 @@
       <c r="V505" s="4"/>
       <c r="W505" s="4"/>
     </row>
-    <row r="506" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="10"/>
       <c r="B506" s="11"/>
       <c r="C506" s="10"/>
@@ -13293,7 +13293,7 @@
       <c r="V506" s="4"/>
       <c r="W506" s="4"/>
     </row>
-    <row r="507" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="10"/>
       <c r="B507" s="11"/>
       <c r="C507" s="10"/>
@@ -13318,7 +13318,7 @@
       <c r="V507" s="4"/>
       <c r="W507" s="4"/>
     </row>
-    <row r="508" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="10"/>
       <c r="B508" s="11"/>
       <c r="C508" s="10"/>
@@ -13343,7 +13343,7 @@
       <c r="V508" s="4"/>
       <c r="W508" s="4"/>
     </row>
-    <row r="509" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="10"/>
       <c r="B509" s="11"/>
       <c r="C509" s="10"/>
@@ -13368,7 +13368,7 @@
       <c r="V509" s="4"/>
       <c r="W509" s="4"/>
     </row>
-    <row r="510" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="10"/>
       <c r="B510" s="11"/>
       <c r="C510" s="10"/>
@@ -13393,7 +13393,7 @@
       <c r="V510" s="4"/>
       <c r="W510" s="4"/>
     </row>
-    <row r="511" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="10"/>
       <c r="B511" s="11"/>
       <c r="C511" s="10"/>
@@ -13418,7 +13418,7 @@
       <c r="V511" s="4"/>
       <c r="W511" s="4"/>
     </row>
-    <row r="512" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="10"/>
       <c r="B512" s="11"/>
       <c r="C512" s="10"/>
@@ -13443,7 +13443,7 @@
       <c r="V512" s="4"/>
       <c r="W512" s="4"/>
     </row>
-    <row r="513" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="10"/>
       <c r="B513" s="11"/>
       <c r="C513" s="10"/>
@@ -13468,7 +13468,7 @@
       <c r="V513" s="4"/>
       <c r="W513" s="4"/>
     </row>
-    <row r="514" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="10"/>
       <c r="B514" s="11"/>
       <c r="C514" s="10"/>
@@ -13493,7 +13493,7 @@
       <c r="V514" s="4"/>
       <c r="W514" s="4"/>
     </row>
-    <row r="515" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="10"/>
       <c r="B515" s="11"/>
       <c r="C515" s="10"/>
@@ -13518,7 +13518,7 @@
       <c r="V515" s="4"/>
       <c r="W515" s="4"/>
     </row>
-    <row r="516" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="10"/>
       <c r="B516" s="11"/>
       <c r="C516" s="10"/>
@@ -13543,7 +13543,7 @@
       <c r="V516" s="4"/>
       <c r="W516" s="4"/>
     </row>
-    <row r="517" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="10"/>
       <c r="B517" s="11"/>
       <c r="C517" s="10"/>
@@ -13568,7 +13568,7 @@
       <c r="V517" s="4"/>
       <c r="W517" s="4"/>
     </row>
-    <row r="518" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="10"/>
       <c r="B518" s="11"/>
       <c r="C518" s="10"/>
@@ -13593,7 +13593,7 @@
       <c r="V518" s="4"/>
       <c r="W518" s="4"/>
     </row>
-    <row r="519" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="10"/>
       <c r="B519" s="11"/>
       <c r="C519" s="10"/>
@@ -13618,7 +13618,7 @@
       <c r="V519" s="4"/>
       <c r="W519" s="4"/>
     </row>
-    <row r="520" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="10"/>
       <c r="B520" s="11"/>
       <c r="C520" s="10"/>
@@ -13643,7 +13643,7 @@
       <c r="V520" s="4"/>
       <c r="W520" s="4"/>
     </row>
-    <row r="521" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="10"/>
       <c r="B521" s="11"/>
       <c r="C521" s="10"/>
@@ -13668,7 +13668,7 @@
       <c r="V521" s="4"/>
       <c r="W521" s="4"/>
     </row>
-    <row r="522" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="10"/>
       <c r="B522" s="11"/>
       <c r="C522" s="10"/>
@@ -13693,7 +13693,7 @@
       <c r="V522" s="4"/>
       <c r="W522" s="4"/>
     </row>
-    <row r="523" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="10"/>
       <c r="B523" s="11"/>
       <c r="C523" s="10"/>
@@ -13718,7 +13718,7 @@
       <c r="V523" s="4"/>
       <c r="W523" s="4"/>
     </row>
-    <row r="524" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="10"/>
       <c r="B524" s="11"/>
       <c r="C524" s="10"/>
@@ -13743,7 +13743,7 @@
       <c r="V524" s="4"/>
       <c r="W524" s="4"/>
     </row>
-    <row r="525" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="10"/>
       <c r="B525" s="11"/>
       <c r="C525" s="10"/>
@@ -13768,7 +13768,7 @@
       <c r="V525" s="4"/>
       <c r="W525" s="4"/>
     </row>
-    <row r="526" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="10"/>
       <c r="B526" s="11"/>
       <c r="C526" s="10"/>
@@ -13793,7 +13793,7 @@
       <c r="V526" s="4"/>
       <c r="W526" s="4"/>
     </row>
-    <row r="527" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="10"/>
       <c r="B527" s="11"/>
       <c r="C527" s="10"/>
@@ -13818,7 +13818,7 @@
       <c r="V527" s="4"/>
       <c r="W527" s="4"/>
     </row>
-    <row r="528" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="10"/>
       <c r="B528" s="11"/>
       <c r="C528" s="10"/>
@@ -13843,7 +13843,7 @@
       <c r="V528" s="4"/>
       <c r="W528" s="4"/>
     </row>
-    <row r="529" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="10"/>
       <c r="B529" s="11"/>
       <c r="C529" s="10"/>
@@ -13868,7 +13868,7 @@
       <c r="V529" s="4"/>
       <c r="W529" s="4"/>
     </row>
-    <row r="530" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="10"/>
       <c r="B530" s="11"/>
       <c r="C530" s="10"/>
@@ -13893,7 +13893,7 @@
       <c r="V530" s="4"/>
       <c r="W530" s="4"/>
     </row>
-    <row r="531" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="10"/>
       <c r="B531" s="11"/>
       <c r="C531" s="10"/>
@@ -13918,7 +13918,7 @@
       <c r="V531" s="4"/>
       <c r="W531" s="4"/>
     </row>
-    <row r="532" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="10"/>
       <c r="B532" s="11"/>
       <c r="C532" s="10"/>
@@ -13943,7 +13943,7 @@
       <c r="V532" s="4"/>
       <c r="W532" s="4"/>
     </row>
-    <row r="533" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="10"/>
       <c r="B533" s="11"/>
       <c r="C533" s="10"/>
@@ -13968,7 +13968,7 @@
       <c r="V533" s="4"/>
       <c r="W533" s="4"/>
     </row>
-    <row r="534" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="10"/>
       <c r="B534" s="11"/>
       <c r="C534" s="10"/>
@@ -13993,7 +13993,7 @@
       <c r="V534" s="4"/>
       <c r="W534" s="4"/>
     </row>
-    <row r="535" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="10"/>
       <c r="B535" s="11"/>
       <c r="C535" s="10"/>
@@ -14018,7 +14018,7 @@
       <c r="V535" s="4"/>
       <c r="W535" s="4"/>
     </row>
-    <row r="536" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="10"/>
       <c r="B536" s="11"/>
       <c r="C536" s="10"/>
@@ -14043,7 +14043,7 @@
       <c r="V536" s="4"/>
       <c r="W536" s="4"/>
     </row>
-    <row r="537" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="10"/>
       <c r="B537" s="11"/>
       <c r="C537" s="10"/>
@@ -14068,7 +14068,7 @@
       <c r="V537" s="4"/>
       <c r="W537" s="4"/>
     </row>
-    <row r="538" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="10"/>
       <c r="B538" s="11"/>
       <c r="C538" s="10"/>
@@ -14093,7 +14093,7 @@
       <c r="V538" s="4"/>
       <c r="W538" s="4"/>
     </row>
-    <row r="539" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="10"/>
       <c r="B539" s="11"/>
       <c r="C539" s="10"/>
@@ -14118,7 +14118,7 @@
       <c r="V539" s="4"/>
       <c r="W539" s="4"/>
     </row>
-    <row r="540" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="10"/>
       <c r="B540" s="11"/>
       <c r="C540" s="10"/>
@@ -14143,7 +14143,7 @@
       <c r="V540" s="4"/>
       <c r="W540" s="4"/>
     </row>
-    <row r="541" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="10"/>
       <c r="B541" s="11"/>
       <c r="C541" s="10"/>
@@ -14168,7 +14168,7 @@
       <c r="V541" s="4"/>
       <c r="W541" s="4"/>
     </row>
-    <row r="542" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="10"/>
       <c r="B542" s="11"/>
       <c r="C542" s="10"/>
@@ -14193,7 +14193,7 @@
       <c r="V542" s="4"/>
       <c r="W542" s="4"/>
     </row>
-    <row r="543" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="10"/>
       <c r="B543" s="11"/>
       <c r="C543" s="10"/>
@@ -14218,7 +14218,7 @@
       <c r="V543" s="4"/>
       <c r="W543" s="4"/>
     </row>
-    <row r="544" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="10"/>
       <c r="B544" s="11"/>
       <c r="C544" s="10"/>
@@ -14243,7 +14243,7 @@
       <c r="V544" s="4"/>
       <c r="W544" s="4"/>
     </row>
-    <row r="545" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="10"/>
       <c r="B545" s="11"/>
       <c r="C545" s="10"/>
@@ -14268,7 +14268,7 @@
       <c r="V545" s="4"/>
       <c r="W545" s="4"/>
     </row>
-    <row r="546" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="10"/>
       <c r="B546" s="11"/>
       <c r="C546" s="10"/>
@@ -14293,7 +14293,7 @@
       <c r="V546" s="4"/>
       <c r="W546" s="4"/>
     </row>
-    <row r="547" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="10"/>
       <c r="B547" s="11"/>
       <c r="C547" s="10"/>
@@ -14318,7 +14318,7 @@
       <c r="V547" s="4"/>
       <c r="W547" s="4"/>
     </row>
-    <row r="548" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="10"/>
       <c r="B548" s="11"/>
       <c r="C548" s="10"/>
@@ -14343,7 +14343,7 @@
       <c r="V548" s="4"/>
       <c r="W548" s="4"/>
     </row>
-    <row r="549" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="10"/>
       <c r="B549" s="11"/>
       <c r="C549" s="10"/>
@@ -14368,7 +14368,7 @@
       <c r="V549" s="4"/>
       <c r="W549" s="4"/>
     </row>
-    <row r="550" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="10"/>
       <c r="B550" s="11"/>
       <c r="C550" s="10"/>
@@ -14393,7 +14393,7 @@
       <c r="V550" s="4"/>
       <c r="W550" s="4"/>
     </row>
-    <row r="551" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="10"/>
       <c r="B551" s="11"/>
       <c r="C551" s="10"/>
@@ -14418,7 +14418,7 @@
       <c r="V551" s="4"/>
       <c r="W551" s="4"/>
     </row>
-    <row r="552" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="10"/>
       <c r="B552" s="11"/>
       <c r="C552" s="10"/>
@@ -14443,7 +14443,7 @@
       <c r="V552" s="4"/>
       <c r="W552" s="4"/>
     </row>
-    <row r="553" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="10"/>
       <c r="B553" s="11"/>
       <c r="C553" s="10"/>
@@ -14468,7 +14468,7 @@
       <c r="V553" s="4"/>
       <c r="W553" s="4"/>
     </row>
-    <row r="554" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="10"/>
       <c r="B554" s="11"/>
       <c r="C554" s="10"/>
@@ -14493,7 +14493,7 @@
       <c r="V554" s="4"/>
       <c r="W554" s="4"/>
     </row>
-    <row r="555" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="10"/>
       <c r="B555" s="11"/>
       <c r="C555" s="10"/>
@@ -14518,7 +14518,7 @@
       <c r="V555" s="4"/>
       <c r="W555" s="4"/>
     </row>
-    <row r="556" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="10"/>
       <c r="B556" s="11"/>
       <c r="C556" s="10"/>
@@ -14543,7 +14543,7 @@
       <c r="V556" s="4"/>
       <c r="W556" s="4"/>
     </row>
-    <row r="557" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="10"/>
       <c r="B557" s="11"/>
       <c r="C557" s="10"/>
@@ -14568,7 +14568,7 @@
       <c r="V557" s="4"/>
       <c r="W557" s="4"/>
     </row>
-    <row r="558" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="10"/>
       <c r="B558" s="11"/>
       <c r="C558" s="10"/>
@@ -14593,7 +14593,7 @@
       <c r="V558" s="4"/>
       <c r="W558" s="4"/>
     </row>
-    <row r="559" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="10"/>
       <c r="B559" s="11"/>
       <c r="C559" s="10"/>
@@ -14618,7 +14618,7 @@
       <c r="V559" s="4"/>
       <c r="W559" s="4"/>
     </row>
-    <row r="560" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="10"/>
       <c r="B560" s="11"/>
       <c r="C560" s="10"/>
@@ -14643,7 +14643,7 @@
       <c r="V560" s="4"/>
       <c r="W560" s="4"/>
     </row>
-    <row r="561" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="10"/>
       <c r="B561" s="11"/>
       <c r="C561" s="10"/>
@@ -14668,7 +14668,7 @@
       <c r="V561" s="4"/>
       <c r="W561" s="4"/>
     </row>
-    <row r="562" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="10"/>
       <c r="B562" s="11"/>
       <c r="C562" s="10"/>
@@ -14693,7 +14693,7 @@
       <c r="V562" s="4"/>
       <c r="W562" s="4"/>
     </row>
-    <row r="563" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="10"/>
       <c r="B563" s="11"/>
       <c r="C563" s="10"/>
@@ -14718,7 +14718,7 @@
       <c r="V563" s="4"/>
       <c r="W563" s="4"/>
     </row>
-    <row r="564" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="10"/>
       <c r="B564" s="11"/>
       <c r="C564" s="10"/>
@@ -14743,7 +14743,7 @@
       <c r="V564" s="4"/>
       <c r="W564" s="4"/>
     </row>
-    <row r="565" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="10"/>
       <c r="B565" s="11"/>
       <c r="C565" s="10"/>
@@ -14768,7 +14768,7 @@
       <c r="V565" s="4"/>
       <c r="W565" s="4"/>
     </row>
-    <row r="566" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="10"/>
       <c r="B566" s="11"/>
       <c r="C566" s="10"/>
@@ -14793,7 +14793,7 @@
       <c r="V566" s="4"/>
       <c r="W566" s="4"/>
     </row>
-    <row r="567" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="10"/>
       <c r="B567" s="11"/>
       <c r="C567" s="10"/>
@@ -14818,7 +14818,7 @@
       <c r="V567" s="4"/>
       <c r="W567" s="4"/>
     </row>
-    <row r="568" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="10"/>
       <c r="B568" s="11"/>
       <c r="C568" s="10"/>
@@ -14843,7 +14843,7 @@
       <c r="V568" s="4"/>
       <c r="W568" s="4"/>
     </row>
-    <row r="569" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="10"/>
       <c r="B569" s="11"/>
       <c r="C569" s="10"/>
@@ -14868,7 +14868,7 @@
       <c r="V569" s="4"/>
       <c r="W569" s="4"/>
     </row>
-    <row r="570" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="10"/>
       <c r="B570" s="11"/>
       <c r="C570" s="10"/>
@@ -14893,7 +14893,7 @@
       <c r="V570" s="4"/>
       <c r="W570" s="4"/>
     </row>
-    <row r="571" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="10"/>
       <c r="B571" s="11"/>
       <c r="C571" s="10"/>
@@ -14918,7 +14918,7 @@
       <c r="V571" s="4"/>
       <c r="W571" s="4"/>
     </row>
-    <row r="572" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="10"/>
       <c r="B572" s="11"/>
       <c r="C572" s="10"/>
@@ -14943,7 +14943,7 @@
       <c r="V572" s="4"/>
       <c r="W572" s="4"/>
     </row>
-    <row r="573" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="10"/>
       <c r="B573" s="11"/>
       <c r="C573" s="10"/>
@@ -14968,7 +14968,7 @@
       <c r="V573" s="4"/>
       <c r="W573" s="4"/>
     </row>
-    <row r="574" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="10"/>
       <c r="B574" s="11"/>
       <c r="C574" s="10"/>
@@ -14993,7 +14993,7 @@
       <c r="V574" s="4"/>
       <c r="W574" s="4"/>
     </row>
-    <row r="575" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="10"/>
       <c r="B575" s="11"/>
       <c r="C575" s="10"/>
@@ -15018,7 +15018,7 @@
       <c r="V575" s="4"/>
       <c r="W575" s="4"/>
     </row>
-    <row r="576" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="10"/>
       <c r="B576" s="11"/>
       <c r="C576" s="10"/>
@@ -15043,7 +15043,7 @@
       <c r="V576" s="4"/>
       <c r="W576" s="4"/>
     </row>
-    <row r="577" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="10"/>
       <c r="B577" s="11"/>
       <c r="C577" s="10"/>
@@ -15068,7 +15068,7 @@
       <c r="V577" s="4"/>
       <c r="W577" s="4"/>
     </row>
-    <row r="578" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="10"/>
       <c r="B578" s="11"/>
       <c r="C578" s="10"/>
@@ -15093,7 +15093,7 @@
       <c r="V578" s="4"/>
       <c r="W578" s="4"/>
     </row>
-    <row r="579" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="10"/>
       <c r="B579" s="11"/>
       <c r="C579" s="10"/>
@@ -15118,7 +15118,7 @@
       <c r="V579" s="4"/>
       <c r="W579" s="4"/>
     </row>
-    <row r="580" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="10"/>
       <c r="B580" s="11"/>
       <c r="C580" s="10"/>
@@ -15143,7 +15143,7 @@
       <c r="V580" s="4"/>
       <c r="W580" s="4"/>
     </row>
-    <row r="581" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="10"/>
       <c r="B581" s="11"/>
       <c r="C581" s="10"/>
@@ -15168,7 +15168,7 @@
       <c r="V581" s="4"/>
       <c r="W581" s="4"/>
     </row>
-    <row r="582" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="10"/>
       <c r="B582" s="11"/>
       <c r="C582" s="10"/>
@@ -15193,7 +15193,7 @@
       <c r="V582" s="4"/>
       <c r="W582" s="4"/>
     </row>
-    <row r="583" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="10"/>
       <c r="B583" s="11"/>
       <c r="C583" s="10"/>
@@ -15218,7 +15218,7 @@
       <c r="V583" s="4"/>
       <c r="W583" s="4"/>
     </row>
-    <row r="584" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="10"/>
       <c r="B584" s="11"/>
       <c r="C584" s="10"/>
@@ -15243,7 +15243,7 @@
       <c r="V584" s="4"/>
       <c r="W584" s="4"/>
     </row>
-    <row r="585" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="10"/>
       <c r="B585" s="11"/>
       <c r="C585" s="10"/>
@@ -15268,7 +15268,7 @@
       <c r="V585" s="4"/>
       <c r="W585" s="4"/>
     </row>
-    <row r="586" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="10"/>
       <c r="B586" s="11"/>
       <c r="C586" s="10"/>
@@ -15293,7 +15293,7 @@
       <c r="V586" s="4"/>
       <c r="W586" s="4"/>
     </row>
-    <row r="587" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="10"/>
       <c r="B587" s="11"/>
       <c r="C587" s="10"/>
@@ -15318,7 +15318,7 @@
       <c r="V587" s="4"/>
       <c r="W587" s="4"/>
     </row>
-    <row r="588" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="10"/>
       <c r="B588" s="11"/>
       <c r="C588" s="10"/>
@@ -15343,7 +15343,7 @@
       <c r="V588" s="4"/>
       <c r="W588" s="4"/>
     </row>
-    <row r="589" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="10"/>
       <c r="B589" s="11"/>
       <c r="C589" s="10"/>
@@ -15368,7 +15368,7 @@
       <c r="V589" s="4"/>
       <c r="W589" s="4"/>
     </row>
-    <row r="590" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="10"/>
       <c r="B590" s="11"/>
       <c r="C590" s="10"/>
@@ -15393,7 +15393,7 @@
       <c r="V590" s="4"/>
       <c r="W590" s="4"/>
     </row>
-    <row r="591" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="10"/>
       <c r="B591" s="11"/>
       <c r="C591" s="10"/>
@@ -15418,7 +15418,7 @@
       <c r="V591" s="4"/>
       <c r="W591" s="4"/>
     </row>
-    <row r="592" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="10"/>
       <c r="B592" s="11"/>
       <c r="C592" s="10"/>
@@ -15443,7 +15443,7 @@
       <c r="V592" s="4"/>
       <c r="W592" s="4"/>
     </row>
-    <row r="593" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="10"/>
       <c r="B593" s="11"/>
       <c r="C593" s="10"/>
@@ -15468,7 +15468,7 @@
       <c r="V593" s="4"/>
       <c r="W593" s="4"/>
     </row>
-    <row r="594" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="10"/>
       <c r="B594" s="11"/>
       <c r="C594" s="10"/>
@@ -15493,7 +15493,7 @@
       <c r="V594" s="4"/>
       <c r="W594" s="4"/>
     </row>
-    <row r="595" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="10"/>
       <c r="B595" s="11"/>
       <c r="C595" s="10"/>
@@ -15518,7 +15518,7 @@
       <c r="V595" s="4"/>
       <c r="W595" s="4"/>
     </row>
-    <row r="596" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="10"/>
       <c r="B596" s="11"/>
       <c r="C596" s="10"/>
@@ -15543,7 +15543,7 @@
       <c r="V596" s="4"/>
       <c r="W596" s="4"/>
     </row>
-    <row r="597" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="10"/>
       <c r="B597" s="11"/>
       <c r="C597" s="10"/>
@@ -15568,7 +15568,7 @@
       <c r="V597" s="4"/>
       <c r="W597" s="4"/>
     </row>
-    <row r="598" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="10"/>
       <c r="B598" s="11"/>
       <c r="C598" s="10"/>
@@ -15593,7 +15593,7 @@
       <c r="V598" s="4"/>
       <c r="W598" s="4"/>
     </row>
-    <row r="599" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="10"/>
       <c r="B599" s="11"/>
       <c r="C599" s="10"/>
@@ -15618,7 +15618,7 @@
       <c r="V599" s="4"/>
       <c r="W599" s="4"/>
     </row>
-    <row r="600" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="10"/>
       <c r="B600" s="11"/>
       <c r="C600" s="10"/>
@@ -15643,7 +15643,7 @@
       <c r="V600" s="4"/>
       <c r="W600" s="4"/>
     </row>
-    <row r="601" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="10"/>
       <c r="B601" s="11"/>
       <c r="C601" s="10"/>
@@ -15668,7 +15668,7 @@
       <c r="V601" s="4"/>
       <c r="W601" s="4"/>
     </row>
-    <row r="602" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="10"/>
       <c r="B602" s="11"/>
       <c r="C602" s="10"/>
@@ -15693,7 +15693,7 @@
       <c r="V602" s="4"/>
       <c r="W602" s="4"/>
     </row>
-    <row r="603" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="10"/>
       <c r="B603" s="11"/>
       <c r="C603" s="10"/>
@@ -15718,7 +15718,7 @@
       <c r="V603" s="4"/>
       <c r="W603" s="4"/>
     </row>
-    <row r="604" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="10"/>
       <c r="B604" s="11"/>
       <c r="C604" s="10"/>
@@ -15743,7 +15743,7 @@
       <c r="V604" s="4"/>
       <c r="W604" s="4"/>
     </row>
-    <row r="605" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="10"/>
       <c r="B605" s="11"/>
       <c r="C605" s="10"/>
@@ -15768,7 +15768,7 @@
       <c r="V605" s="4"/>
       <c r="W605" s="4"/>
     </row>
-    <row r="606" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="10"/>
       <c r="B606" s="11"/>
       <c r="C606" s="10"/>
@@ -15793,7 +15793,7 @@
       <c r="V606" s="4"/>
       <c r="W606" s="4"/>
     </row>
-    <row r="607" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="10"/>
       <c r="B607" s="11"/>
       <c r="C607" s="10"/>
@@ -15818,7 +15818,7 @@
       <c r="V607" s="4"/>
       <c r="W607" s="4"/>
     </row>
-    <row r="608" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="10"/>
       <c r="B608" s="11"/>
       <c r="C608" s="10"/>
@@ -15843,7 +15843,7 @@
       <c r="V608" s="4"/>
       <c r="W608" s="4"/>
     </row>
-    <row r="609" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="10"/>
       <c r="B609" s="11"/>
       <c r="C609" s="10"/>
@@ -15868,7 +15868,7 @@
       <c r="V609" s="4"/>
       <c r="W609" s="4"/>
     </row>
-    <row r="610" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="10"/>
       <c r="B610" s="11"/>
       <c r="C610" s="10"/>
@@ -15893,7 +15893,7 @@
       <c r="V610" s="4"/>
       <c r="W610" s="4"/>
     </row>
-    <row r="611" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="10"/>
       <c r="B611" s="11"/>
       <c r="C611" s="10"/>
@@ -15918,7 +15918,7 @@
       <c r="V611" s="4"/>
       <c r="W611" s="4"/>
     </row>
-    <row r="612" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="10"/>
       <c r="B612" s="11"/>
       <c r="C612" s="10"/>
@@ -15943,7 +15943,7 @@
       <c r="V612" s="4"/>
       <c r="W612" s="4"/>
     </row>
-    <row r="613" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="10"/>
       <c r="B613" s="11"/>
       <c r="C613" s="10"/>
@@ -15968,7 +15968,7 @@
       <c r="V613" s="4"/>
       <c r="W613" s="4"/>
     </row>
-    <row r="614" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="10"/>
       <c r="B614" s="11"/>
       <c r="C614" s="10"/>
@@ -15993,7 +15993,7 @@
       <c r="V614" s="4"/>
       <c r="W614" s="4"/>
     </row>
-    <row r="615" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="10"/>
       <c r="B615" s="11"/>
       <c r="C615" s="10"/>
@@ -16018,7 +16018,7 @@
       <c r="V615" s="4"/>
       <c r="W615" s="4"/>
     </row>
-    <row r="616" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="10"/>
       <c r="B616" s="11"/>
       <c r="C616" s="10"/>
@@ -16043,7 +16043,7 @@
       <c r="V616" s="4"/>
       <c r="W616" s="4"/>
     </row>
-    <row r="617" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="10"/>
       <c r="B617" s="11"/>
       <c r="C617" s="10"/>
@@ -16068,7 +16068,7 @@
       <c r="V617" s="4"/>
       <c r="W617" s="4"/>
     </row>
-    <row r="618" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="10"/>
       <c r="B618" s="11"/>
       <c r="C618" s="10"/>
@@ -16093,7 +16093,7 @@
       <c r="V618" s="4"/>
       <c r="W618" s="4"/>
     </row>
-    <row r="619" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="10"/>
       <c r="B619" s="11"/>
       <c r="C619" s="10"/>
@@ -16118,7 +16118,7 @@
       <c r="V619" s="4"/>
       <c r="W619" s="4"/>
     </row>
-    <row r="620" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="10"/>
       <c r="B620" s="11"/>
       <c r="C620" s="10"/>
@@ -16143,7 +16143,7 @@
       <c r="V620" s="4"/>
       <c r="W620" s="4"/>
     </row>
-    <row r="621" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="10"/>
       <c r="B621" s="11"/>
       <c r="C621" s="10"/>
@@ -16168,7 +16168,7 @@
       <c r="V621" s="4"/>
       <c r="W621" s="4"/>
     </row>
-    <row r="622" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="10"/>
       <c r="B622" s="11"/>
       <c r="C622" s="10"/>
@@ -16193,7 +16193,7 @@
       <c r="V622" s="4"/>
       <c r="W622" s="4"/>
     </row>
-    <row r="623" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="10"/>
       <c r="B623" s="11"/>
       <c r="C623" s="10"/>
@@ -16218,7 +16218,7 @@
       <c r="V623" s="4"/>
       <c r="W623" s="4"/>
     </row>
-    <row r="624" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="10"/>
       <c r="B624" s="11"/>
       <c r="C624" s="10"/>
@@ -16243,7 +16243,7 @@
       <c r="V624" s="4"/>
       <c r="W624" s="4"/>
     </row>
-    <row r="625" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="10"/>
       <c r="B625" s="11"/>
       <c r="C625" s="10"/>
@@ -16268,7 +16268,7 @@
       <c r="V625" s="4"/>
       <c r="W625" s="4"/>
     </row>
-    <row r="626" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="10"/>
       <c r="B626" s="11"/>
       <c r="C626" s="10"/>
@@ -16293,7 +16293,7 @@
       <c r="V626" s="4"/>
       <c r="W626" s="4"/>
     </row>
-    <row r="627" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="10"/>
       <c r="B627" s="11"/>
       <c r="C627" s="10"/>
@@ -16318,7 +16318,7 @@
       <c r="V627" s="4"/>
       <c r="W627" s="4"/>
     </row>
-    <row r="628" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="10"/>
       <c r="B628" s="11"/>
       <c r="C628" s="10"/>
@@ -16343,7 +16343,7 @@
       <c r="V628" s="4"/>
       <c r="W628" s="4"/>
     </row>
-    <row r="629" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="10"/>
       <c r="B629" s="11"/>
       <c r="C629" s="10"/>
@@ -16368,7 +16368,7 @@
       <c r="V629" s="4"/>
       <c r="W629" s="4"/>
     </row>
-    <row r="630" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="10"/>
       <c r="B630" s="11"/>
       <c r="C630" s="10"/>
@@ -16393,7 +16393,7 @@
       <c r="V630" s="4"/>
       <c r="W630" s="4"/>
     </row>
-    <row r="631" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="10"/>
       <c r="B631" s="11"/>
       <c r="C631" s="10"/>
@@ -16418,7 +16418,7 @@
       <c r="V631" s="4"/>
       <c r="W631" s="4"/>
     </row>
-    <row r="632" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="10"/>
       <c r="B632" s="11"/>
       <c r="C632" s="10"/>
@@ -16443,7 +16443,7 @@
       <c r="V632" s="4"/>
       <c r="W632" s="4"/>
     </row>
-    <row r="633" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="10"/>
       <c r="B633" s="11"/>
       <c r="C633" s="10"/>
@@ -16468,7 +16468,7 @@
       <c r="V633" s="4"/>
       <c r="W633" s="4"/>
     </row>
-    <row r="634" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="10"/>
       <c r="B634" s="11"/>
       <c r="C634" s="10"/>
@@ -16493,7 +16493,7 @@
       <c r="V634" s="4"/>
       <c r="W634" s="4"/>
     </row>
-    <row r="635" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="10"/>
       <c r="B635" s="11"/>
       <c r="C635" s="10"/>
@@ -16518,7 +16518,7 @@
       <c r="V635" s="4"/>
       <c r="W635" s="4"/>
     </row>
-    <row r="636" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="10"/>
       <c r="B636" s="11"/>
       <c r="C636" s="10"/>
@@ -16543,7 +16543,7 @@
       <c r="V636" s="4"/>
       <c r="W636" s="4"/>
     </row>
-    <row r="637" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="10"/>
       <c r="B637" s="11"/>
       <c r="C637" s="10"/>
@@ -16568,7 +16568,7 @@
       <c r="V637" s="4"/>
       <c r="W637" s="4"/>
     </row>
-    <row r="638" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="10"/>
       <c r="B638" s="11"/>
       <c r="C638" s="10"/>
@@ -16593,7 +16593,7 @@
       <c r="V638" s="4"/>
       <c r="W638" s="4"/>
     </row>
-    <row r="639" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="10"/>
       <c r="B639" s="11"/>
       <c r="C639" s="10"/>
@@ -16618,7 +16618,7 @@
       <c r="V639" s="4"/>
       <c r="W639" s="4"/>
     </row>
-    <row r="640" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="10"/>
       <c r="B640" s="11"/>
       <c r="C640" s="10"/>
@@ -16643,7 +16643,7 @@
       <c r="V640" s="4"/>
       <c r="W640" s="4"/>
     </row>
-    <row r="641" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="10"/>
       <c r="B641" s="11"/>
       <c r="C641" s="10"/>
@@ -16668,7 +16668,7 @@
       <c r="V641" s="4"/>
       <c r="W641" s="4"/>
     </row>
-    <row r="642" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="10"/>
       <c r="B642" s="11"/>
       <c r="C642" s="10"/>
@@ -16693,7 +16693,7 @@
       <c r="V642" s="4"/>
       <c r="W642" s="4"/>
     </row>
-    <row r="643" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="10"/>
       <c r="B643" s="11"/>
       <c r="C643" s="10"/>
@@ -16718,7 +16718,7 @@
       <c r="V643" s="4"/>
       <c r="W643" s="4"/>
     </row>
-    <row r="644" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="10"/>
       <c r="B644" s="11"/>
       <c r="C644" s="10"/>
@@ -16743,7 +16743,7 @@
       <c r="V644" s="4"/>
       <c r="W644" s="4"/>
     </row>
-    <row r="645" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="10"/>
       <c r="B645" s="11"/>
       <c r="C645" s="10"/>
@@ -16768,7 +16768,7 @@
       <c r="V645" s="4"/>
       <c r="W645" s="4"/>
     </row>
-    <row r="646" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="10"/>
       <c r="B646" s="11"/>
       <c r="C646" s="10"/>
@@ -16793,7 +16793,7 @@
       <c r="V646" s="4"/>
       <c r="W646" s="4"/>
     </row>
-    <row r="647" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="10"/>
       <c r="B647" s="11"/>
       <c r="C647" s="10"/>
@@ -16818,7 +16818,7 @@
       <c r="V647" s="4"/>
       <c r="W647" s="4"/>
     </row>
-    <row r="648" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="10"/>
       <c r="B648" s="11"/>
       <c r="C648" s="10"/>
@@ -16843,7 +16843,7 @@
       <c r="V648" s="4"/>
       <c r="W648" s="4"/>
     </row>
-    <row r="649" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="10"/>
       <c r="B649" s="11"/>
       <c r="C649" s="10"/>
@@ -16868,7 +16868,7 @@
       <c r="V649" s="4"/>
       <c r="W649" s="4"/>
     </row>
-    <row r="650" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="10"/>
       <c r="B650" s="11"/>
       <c r="C650" s="10"/>
@@ -16893,7 +16893,7 @@
       <c r="V650" s="4"/>
       <c r="W650" s="4"/>
     </row>
-    <row r="651" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="10"/>
       <c r="B651" s="11"/>
       <c r="C651" s="10"/>
@@ -16918,7 +16918,7 @@
       <c r="V651" s="4"/>
       <c r="W651" s="4"/>
     </row>
-    <row r="652" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="10"/>
       <c r="B652" s="11"/>
       <c r="C652" s="10"/>
@@ -16943,7 +16943,7 @@
       <c r="V652" s="4"/>
       <c r="W652" s="4"/>
     </row>
-    <row r="653" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="10"/>
       <c r="B653" s="11"/>
       <c r="C653" s="10"/>
@@ -16968,7 +16968,7 @@
       <c r="V653" s="4"/>
       <c r="W653" s="4"/>
     </row>
-    <row r="654" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="10"/>
       <c r="B654" s="11"/>
       <c r="C654" s="10"/>
@@ -16993,7 +16993,7 @@
       <c r="V654" s="4"/>
       <c r="W654" s="4"/>
     </row>
-    <row r="655" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="10"/>
       <c r="B655" s="11"/>
       <c r="C655" s="10"/>
@@ -17018,7 +17018,7 @@
       <c r="V655" s="4"/>
       <c r="W655" s="4"/>
     </row>
-    <row r="656" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="10"/>
       <c r="B656" s="11"/>
       <c r="C656" s="10"/>
@@ -17043,7 +17043,7 @@
       <c r="V656" s="4"/>
       <c r="W656" s="4"/>
     </row>
-    <row r="657" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="10"/>
       <c r="B657" s="11"/>
       <c r="C657" s="10"/>
@@ -17068,7 +17068,7 @@
       <c r="V657" s="4"/>
       <c r="W657" s="4"/>
     </row>
-    <row r="658" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="10"/>
       <c r="B658" s="11"/>
       <c r="C658" s="10"/>
@@ -17093,7 +17093,7 @@
       <c r="V658" s="4"/>
       <c r="W658" s="4"/>
     </row>
-    <row r="659" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="10"/>
       <c r="B659" s="11"/>
       <c r="C659" s="10"/>
@@ -17118,7 +17118,7 @@
       <c r="V659" s="4"/>
       <c r="W659" s="4"/>
     </row>
-    <row r="660" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="10"/>
       <c r="B660" s="11"/>
       <c r="C660" s="10"/>
@@ -17143,7 +17143,7 @@
       <c r="V660" s="4"/>
       <c r="W660" s="4"/>
     </row>
-    <row r="661" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="10"/>
       <c r="B661" s="11"/>
       <c r="C661" s="10"/>
@@ -17168,7 +17168,7 @@
       <c r="V661" s="4"/>
       <c r="W661" s="4"/>
     </row>
-    <row r="662" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="10"/>
       <c r="B662" s="11"/>
       <c r="C662" s="10"/>
@@ -17193,7 +17193,7 @@
       <c r="V662" s="4"/>
       <c r="W662" s="4"/>
     </row>
-    <row r="663" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="10"/>
       <c r="B663" s="11"/>
       <c r="C663" s="10"/>
@@ -17218,7 +17218,7 @@
       <c r="V663" s="4"/>
       <c r="W663" s="4"/>
     </row>
-    <row r="664" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="10"/>
       <c r="B664" s="11"/>
       <c r="C664" s="10"/>
@@ -17243,7 +17243,7 @@
       <c r="V664" s="4"/>
       <c r="W664" s="4"/>
     </row>
-    <row r="665" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="10"/>
       <c r="B665" s="11"/>
       <c r="C665" s="10"/>
@@ -17268,7 +17268,7 @@
       <c r="V665" s="4"/>
       <c r="W665" s="4"/>
     </row>
-    <row r="666" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="10"/>
       <c r="B666" s="11"/>
       <c r="C666" s="10"/>
@@ -17293,7 +17293,7 @@
       <c r="V666" s="4"/>
       <c r="W666" s="4"/>
     </row>
-    <row r="667" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="10"/>
       <c r="B667" s="11"/>
       <c r="C667" s="10"/>
@@ -17318,7 +17318,7 @@
       <c r="V667" s="4"/>
       <c r="W667" s="4"/>
     </row>
-    <row r="668" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="10"/>
       <c r="B668" s="11"/>
       <c r="C668" s="10"/>
@@ -17343,7 +17343,7 @@
       <c r="V668" s="4"/>
       <c r="W668" s="4"/>
     </row>
-    <row r="669" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="10"/>
       <c r="B669" s="11"/>
       <c r="C669" s="10"/>
@@ -17368,7 +17368,7 @@
       <c r="V669" s="4"/>
       <c r="W669" s="4"/>
     </row>
-    <row r="670" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="10"/>
       <c r="B670" s="11"/>
       <c r="C670" s="10"/>
@@ -17393,7 +17393,7 @@
       <c r="V670" s="4"/>
       <c r="W670" s="4"/>
     </row>
-    <row r="671" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="10"/>
       <c r="B671" s="11"/>
       <c r="C671" s="10"/>
@@ -17418,7 +17418,7 @@
       <c r="V671" s="4"/>
       <c r="W671" s="4"/>
     </row>
-    <row r="672" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="10"/>
       <c r="B672" s="11"/>
       <c r="C672" s="10"/>
@@ -17443,7 +17443,7 @@
       <c r="V672" s="4"/>
       <c r="W672" s="4"/>
     </row>
-    <row r="673" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="10"/>
       <c r="B673" s="11"/>
       <c r="C673" s="10"/>
@@ -17468,7 +17468,7 @@
       <c r="V673" s="4"/>
       <c r="W673" s="4"/>
     </row>
-    <row r="674" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="10"/>
       <c r="B674" s="11"/>
       <c r="C674" s="10"/>
@@ -17493,7 +17493,7 @@
       <c r="V674" s="4"/>
       <c r="W674" s="4"/>
     </row>
-    <row r="675" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="10"/>
       <c r="B675" s="11"/>
       <c r="C675" s="10"/>
@@ -17518,7 +17518,7 @@
       <c r="V675" s="4"/>
       <c r="W675" s="4"/>
     </row>
-    <row r="676" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="10"/>
       <c r="B676" s="11"/>
       <c r="C676" s="10"/>
@@ -17543,7 +17543,7 @@
       <c r="V676" s="4"/>
       <c r="W676" s="4"/>
     </row>
-    <row r="677" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="10"/>
       <c r="B677" s="11"/>
       <c r="C677" s="10"/>
@@ -17568,7 +17568,7 @@
       <c r="V677" s="4"/>
       <c r="W677" s="4"/>
     </row>
-    <row r="678" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="10"/>
       <c r="B678" s="11"/>
       <c r="C678" s="10"/>
@@ -17593,7 +17593,7 @@
       <c r="V678" s="4"/>
       <c r="W678" s="4"/>
     </row>
-    <row r="679" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="10"/>
       <c r="B679" s="11"/>
       <c r="C679" s="10"/>
@@ -17618,7 +17618,7 @@
       <c r="V679" s="4"/>
       <c r="W679" s="4"/>
     </row>
-    <row r="680" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="10"/>
       <c r="B680" s="11"/>
       <c r="C680" s="10"/>
@@ -17643,7 +17643,7 @@
       <c r="V680" s="4"/>
       <c r="W680" s="4"/>
     </row>
-    <row r="681" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="10"/>
       <c r="B681" s="11"/>
       <c r="C681" s="10"/>
@@ -17668,7 +17668,7 @@
       <c r="V681" s="4"/>
       <c r="W681" s="4"/>
     </row>
-    <row r="682" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="10"/>
       <c r="B682" s="11"/>
       <c r="C682" s="10"/>
@@ -17693,7 +17693,7 @@
       <c r="V682" s="4"/>
       <c r="W682" s="4"/>
     </row>
-    <row r="683" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="10"/>
       <c r="B683" s="11"/>
       <c r="C683" s="10"/>
@@ -17718,7 +17718,7 @@
       <c r="V683" s="4"/>
       <c r="W683" s="4"/>
     </row>
-    <row r="684" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="10"/>
       <c r="B684" s="11"/>
       <c r="C684" s="10"/>
@@ -17743,7 +17743,7 @@
       <c r="V684" s="4"/>
       <c r="W684" s="4"/>
     </row>
-    <row r="685" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="10"/>
       <c r="B685" s="11"/>
       <c r="C685" s="10"/>
@@ -17768,7 +17768,7 @@
       <c r="V685" s="4"/>
       <c r="W685" s="4"/>
     </row>
-    <row r="686" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="10"/>
       <c r="B686" s="11"/>
       <c r="C686" s="10"/>
@@ -17793,7 +17793,7 @@
       <c r="V686" s="4"/>
       <c r="W686" s="4"/>
     </row>
-    <row r="687" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="10"/>
       <c r="B687" s="11"/>
       <c r="C687" s="10"/>
@@ -17818,7 +17818,7 @@
       <c r="V687" s="4"/>
       <c r="W687" s="4"/>
     </row>
-    <row r="688" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="10"/>
       <c r="B688" s="11"/>
       <c r="C688" s="10"/>
@@ -17843,7 +17843,7 @@
       <c r="V688" s="4"/>
       <c r="W688" s="4"/>
     </row>
-    <row r="689" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="10"/>
       <c r="B689" s="11"/>
       <c r="C689" s="10"/>
@@ -17868,7 +17868,7 @@
       <c r="V689" s="4"/>
       <c r="W689" s="4"/>
     </row>
-    <row r="690" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="10"/>
       <c r="B690" s="11"/>
       <c r="C690" s="10"/>
@@ -17893,7 +17893,7 @@
       <c r="V690" s="4"/>
       <c r="W690" s="4"/>
     </row>
-    <row r="691" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="10"/>
       <c r="B691" s="11"/>
       <c r="C691" s="10"/>
@@ -17918,7 +17918,7 @@
       <c r="V691" s="4"/>
       <c r="W691" s="4"/>
     </row>
-    <row r="692" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="10"/>
       <c r="B692" s="11"/>
       <c r="C692" s="10"/>
@@ -17943,7 +17943,7 @@
       <c r="V692" s="4"/>
       <c r="W692" s="4"/>
     </row>
-    <row r="693" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="10"/>
       <c r="B693" s="11"/>
       <c r="C693" s="10"/>
@@ -17968,7 +17968,7 @@
       <c r="V693" s="4"/>
       <c r="W693" s="4"/>
     </row>
-    <row r="694" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="10"/>
       <c r="B694" s="11"/>
       <c r="C694" s="10"/>
@@ -17993,7 +17993,7 @@
       <c r="V694" s="4"/>
       <c r="W694" s="4"/>
     </row>
-    <row r="695" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="10"/>
       <c r="B695" s="11"/>
       <c r="C695" s="10"/>
@@ -18018,7 +18018,7 @@
       <c r="V695" s="4"/>
       <c r="W695" s="4"/>
     </row>
-    <row r="696" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="10"/>
       <c r="B696" s="11"/>
       <c r="C696" s="10"/>
@@ -18043,7 +18043,7 @@
       <c r="V696" s="4"/>
       <c r="W696" s="4"/>
     </row>
-    <row r="697" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="10"/>
       <c r="B697" s="11"/>
       <c r="C697" s="10"/>
@@ -18068,7 +18068,7 @@
       <c r="V697" s="4"/>
       <c r="W697" s="4"/>
     </row>
-    <row r="698" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="10"/>
       <c r="B698" s="11"/>
       <c r="C698" s="10"/>
@@ -18093,7 +18093,7 @@
       <c r="V698" s="4"/>
       <c r="W698" s="4"/>
     </row>
-    <row r="699" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="10"/>
       <c r="B699" s="11"/>
       <c r="C699" s="10"/>
@@ -18118,7 +18118,7 @@
       <c r="V699" s="4"/>
       <c r="W699" s="4"/>
     </row>
-    <row r="700" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="10"/>
       <c r="B700" s="11"/>
       <c r="C700" s="10"/>
@@ -18143,7 +18143,7 @@
       <c r="V700" s="4"/>
       <c r="W700" s="4"/>
     </row>
-    <row r="701" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="10"/>
       <c r="B701" s="11"/>
       <c r="C701" s="10"/>
@@ -18168,7 +18168,7 @@
       <c r="V701" s="4"/>
       <c r="W701" s="4"/>
     </row>
-    <row r="702" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="10"/>
       <c r="B702" s="11"/>
       <c r="C702" s="10"/>
@@ -18193,7 +18193,7 @@
       <c r="V702" s="4"/>
       <c r="W702" s="4"/>
     </row>
-    <row r="703" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="10"/>
       <c r="B703" s="11"/>
       <c r="C703" s="10"/>
@@ -18218,7 +18218,7 @@
       <c r="V703" s="4"/>
       <c r="W703" s="4"/>
     </row>
-    <row r="704" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="10"/>
       <c r="B704" s="11"/>
       <c r="C704" s="10"/>
@@ -18243,7 +18243,7 @@
       <c r="V704" s="4"/>
       <c r="W704" s="4"/>
     </row>
-    <row r="705" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="10"/>
       <c r="B705" s="11"/>
       <c r="C705" s="10"/>
@@ -18268,7 +18268,7 @@
       <c r="V705" s="4"/>
       <c r="W705" s="4"/>
     </row>
-    <row r="706" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="10"/>
       <c r="B706" s="11"/>
       <c r="C706" s="10"/>
@@ -18293,7 +18293,7 @@
       <c r="V706" s="4"/>
       <c r="W706" s="4"/>
     </row>
-    <row r="707" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="10"/>
       <c r="B707" s="11"/>
       <c r="C707" s="10"/>
@@ -18318,7 +18318,7 @@
       <c r="V707" s="4"/>
       <c r="W707" s="4"/>
     </row>
-    <row r="708" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="10"/>
       <c r="B708" s="11"/>
       <c r="C708" s="10"/>
@@ -18343,7 +18343,7 @@
       <c r="V708" s="4"/>
       <c r="W708" s="4"/>
     </row>
-    <row r="709" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="10"/>
       <c r="B709" s="11"/>
       <c r="C709" s="10"/>
@@ -18368,7 +18368,7 @@
       <c r="V709" s="4"/>
       <c r="W709" s="4"/>
     </row>
-    <row r="710" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="10"/>
       <c r="B710" s="11"/>
       <c r="C710" s="10"/>
@@ -18393,7 +18393,7 @@
       <c r="V710" s="4"/>
       <c r="W710" s="4"/>
     </row>
-    <row r="711" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="10"/>
       <c r="B711" s="11"/>
       <c r="C711" s="10"/>
@@ -18418,7 +18418,7 @@
       <c r="V711" s="4"/>
       <c r="W711" s="4"/>
     </row>
-    <row r="712" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="10"/>
       <c r="B712" s="11"/>
       <c r="C712" s="10"/>
@@ -18443,7 +18443,7 @@
       <c r="V712" s="4"/>
       <c r="W712" s="4"/>
     </row>
-    <row r="713" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="10"/>
       <c r="B713" s="11"/>
       <c r="C713" s="10"/>
@@ -18468,7 +18468,7 @@
       <c r="V713" s="4"/>
       <c r="W713" s="4"/>
     </row>
-    <row r="714" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="10"/>
       <c r="B714" s="11"/>
       <c r="C714" s="10"/>
@@ -18493,7 +18493,7 @@
       <c r="V714" s="4"/>
       <c r="W714" s="4"/>
     </row>
-    <row r="715" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="10"/>
       <c r="B715" s="11"/>
       <c r="C715" s="10"/>
@@ -18518,7 +18518,7 @@
       <c r="V715" s="4"/>
       <c r="W715" s="4"/>
     </row>
-    <row r="716" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="10"/>
       <c r="B716" s="11"/>
       <c r="C716" s="10"/>
@@ -18543,7 +18543,7 @@
       <c r="V716" s="4"/>
       <c r="W716" s="4"/>
     </row>
-    <row r="717" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="10"/>
       <c r="B717" s="11"/>
       <c r="C717" s="10"/>
@@ -18568,7 +18568,7 @@
       <c r="V717" s="4"/>
       <c r="W717" s="4"/>
     </row>
-    <row r="718" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="10"/>
       <c r="B718" s="11"/>
       <c r="C718" s="10"/>
@@ -18593,7 +18593,7 @@
       <c r="V718" s="4"/>
       <c r="W718" s="4"/>
     </row>
-    <row r="719" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="10"/>
       <c r="B719" s="11"/>
       <c r="C719" s="10"/>
@@ -18618,7 +18618,7 @@
       <c r="V719" s="4"/>
       <c r="W719" s="4"/>
     </row>
-    <row r="720" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="10"/>
       <c r="B720" s="11"/>
       <c r="C720" s="10"/>
@@ -18643,7 +18643,7 @@
       <c r="V720" s="4"/>
       <c r="W720" s="4"/>
     </row>
-    <row r="721" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="10"/>
       <c r="B721" s="11"/>
       <c r="C721" s="10"/>
@@ -18668,7 +18668,7 @@
       <c r="V721" s="4"/>
       <c r="W721" s="4"/>
     </row>
-    <row r="722" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="10"/>
       <c r="B722" s="11"/>
       <c r="C722" s="10"/>
@@ -18693,7 +18693,7 @@
       <c r="V722" s="4"/>
       <c r="W722" s="4"/>
     </row>
-    <row r="723" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="10"/>
       <c r="B723" s="11"/>
       <c r="C723" s="10"/>
@@ -18718,7 +18718,7 @@
       <c r="V723" s="4"/>
       <c r="W723" s="4"/>
     </row>
-    <row r="724" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="10"/>
       <c r="B724" s="11"/>
       <c r="C724" s="10"/>
@@ -18743,7 +18743,7 @@
       <c r="V724" s="4"/>
       <c r="W724" s="4"/>
     </row>
-    <row r="725" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="10"/>
       <c r="B725" s="11"/>
       <c r="C725" s="10"/>
@@ -18768,7 +18768,7 @@
       <c r="V725" s="4"/>
       <c r="W725" s="4"/>
     </row>
-    <row r="726" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="10"/>
       <c r="B726" s="11"/>
       <c r="C726" s="10"/>
@@ -18793,7 +18793,7 @@
       <c r="V726" s="4"/>
       <c r="W726" s="4"/>
     </row>
-    <row r="727" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="10"/>
       <c r="B727" s="11"/>
       <c r="C727" s="10"/>
@@ -18818,7 +18818,7 @@
       <c r="V727" s="4"/>
       <c r="W727" s="4"/>
     </row>
-    <row r="728" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="10"/>
       <c r="B728" s="11"/>
       <c r="C728" s="10"/>
@@ -18843,7 +18843,7 @@
       <c r="V728" s="4"/>
       <c r="W728" s="4"/>
     </row>
-    <row r="729" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="10"/>
       <c r="B729" s="11"/>
       <c r="C729" s="10"/>
@@ -18868,7 +18868,7 @@
       <c r="V729" s="4"/>
       <c r="W729" s="4"/>
     </row>
-    <row r="730" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="10"/>
       <c r="B730" s="11"/>
       <c r="C730" s="10"/>
@@ -18893,7 +18893,7 @@
       <c r="V730" s="4"/>
       <c r="W730" s="4"/>
     </row>
-    <row r="731" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="10"/>
       <c r="B731" s="11"/>
       <c r="C731" s="10"/>
@@ -18918,7 +18918,7 @@
       <c r="V731" s="4"/>
       <c r="W731" s="4"/>
     </row>
-    <row r="732" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="10"/>
       <c r="B732" s="11"/>
       <c r="C732" s="10"/>
@@ -18943,7 +18943,7 @@
       <c r="V732" s="4"/>
       <c r="W732" s="4"/>
     </row>
-    <row r="733" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="10"/>
       <c r="B733" s="11"/>
       <c r="C733" s="10"/>
@@ -18968,7 +18968,7 @@
       <c r="V733" s="4"/>
       <c r="W733" s="4"/>
     </row>
-    <row r="734" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="10"/>
       <c r="B734" s="11"/>
       <c r="C734" s="10"/>
@@ -18993,7 +18993,7 @@
       <c r="V734" s="4"/>
       <c r="W734" s="4"/>
     </row>
-    <row r="735" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="10"/>
       <c r="B735" s="11"/>
       <c r="C735" s="10"/>
@@ -19018,7 +19018,7 @@
       <c r="V735" s="4"/>
       <c r="W735" s="4"/>
     </row>
-    <row r="736" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="10"/>
       <c r="B736" s="11"/>
       <c r="C736" s="10"/>
@@ -19043,7 +19043,7 @@
       <c r="V736" s="4"/>
       <c r="W736" s="4"/>
     </row>
-    <row r="737" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="10"/>
       <c r="B737" s="11"/>
       <c r="C737" s="10"/>
@@ -19068,7 +19068,7 @@
       <c r="V737" s="4"/>
       <c r="W737" s="4"/>
     </row>
-    <row r="738" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="10"/>
       <c r="B738" s="11"/>
       <c r="C738" s="10"/>
@@ -19093,7 +19093,7 @@
       <c r="V738" s="4"/>
       <c r="W738" s="4"/>
     </row>
-    <row r="739" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="10"/>
       <c r="B739" s="11"/>
       <c r="C739" s="10"/>
@@ -19118,7 +19118,7 @@
       <c r="V739" s="4"/>
       <c r="W739" s="4"/>
     </row>
-    <row r="740" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="10"/>
       <c r="B740" s="11"/>
       <c r="C740" s="10"/>
@@ -19143,7 +19143,7 @@
       <c r="V740" s="4"/>
       <c r="W740" s="4"/>
     </row>
-    <row r="741" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="10"/>
       <c r="B741" s="11"/>
       <c r="C741" s="10"/>
@@ -19168,7 +19168,7 @@
       <c r="V741" s="4"/>
       <c r="W741" s="4"/>
     </row>
-    <row r="742" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="10"/>
       <c r="B742" s="11"/>
       <c r="C742" s="10"/>
@@ -19193,7 +19193,7 @@
       <c r="V742" s="4"/>
       <c r="W742" s="4"/>
     </row>
-    <row r="743" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="10"/>
       <c r="B743" s="11"/>
       <c r="C743" s="10"/>
@@ -19218,7 +19218,7 @@
       <c r="V743" s="4"/>
       <c r="W743" s="4"/>
     </row>
-    <row r="744" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="10"/>
       <c r="B744" s="11"/>
       <c r="C744" s="10"/>
@@ -19243,7 +19243,7 @@
       <c r="V744" s="4"/>
       <c r="W744" s="4"/>
     </row>
-    <row r="745" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="10"/>
       <c r="B745" s="11"/>
       <c r="C745" s="10"/>
@@ -19268,7 +19268,7 @@
       <c r="V745" s="4"/>
       <c r="W745" s="4"/>
     </row>
-    <row r="746" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="10"/>
       <c r="B746" s="11"/>
       <c r="C746" s="10"/>
@@ -19293,7 +19293,7 @@
       <c r="V746" s="4"/>
       <c r="W746" s="4"/>
     </row>
-    <row r="747" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="10"/>
       <c r="B747" s="11"/>
       <c r="C747" s="10"/>
@@ -19318,7 +19318,7 @@
       <c r="V747" s="4"/>
       <c r="W747" s="4"/>
     </row>
-    <row r="748" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="10"/>
       <c r="B748" s="11"/>
       <c r="C748" s="10"/>
@@ -19343,7 +19343,7 @@
       <c r="V748" s="4"/>
       <c r="W748" s="4"/>
     </row>
-    <row r="749" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="10"/>
       <c r="B749" s="11"/>
       <c r="C749" s="10"/>
@@ -19368,7 +19368,7 @@
       <c r="V749" s="4"/>
       <c r="W749" s="4"/>
     </row>
-    <row r="750" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="10"/>
       <c r="B750" s="11"/>
       <c r="C750" s="10"/>
@@ -19393,7 +19393,7 @@
       <c r="V750" s="4"/>
       <c r="W750" s="4"/>
     </row>
-    <row r="751" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="10"/>
       <c r="B751" s="11"/>
       <c r="C751" s="10"/>
@@ -19418,7 +19418,7 @@
       <c r="V751" s="4"/>
       <c r="W751" s="4"/>
     </row>
-    <row r="752" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="10"/>
       <c r="B752" s="11"/>
       <c r="C752" s="10"/>
@@ -19443,7 +19443,7 @@
       <c r="V752" s="4"/>
       <c r="W752" s="4"/>
     </row>
-    <row r="753" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="10"/>
       <c r="B753" s="11"/>
       <c r="C753" s="10"/>
@@ -19468,7 +19468,7 @@
       <c r="V753" s="4"/>
       <c r="W753" s="4"/>
     </row>
-    <row r="754" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="10"/>
       <c r="B754" s="11"/>
       <c r="C754" s="10"/>
@@ -19493,7 +19493,7 @@
       <c r="V754" s="4"/>
       <c r="W754" s="4"/>
     </row>
-    <row r="755" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="10"/>
       <c r="B755" s="11"/>
       <c r="C755" s="10"/>
@@ -19518,7 +19518,7 @@
       <c r="V755" s="4"/>
       <c r="W755" s="4"/>
     </row>
-    <row r="756" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="10"/>
       <c r="B756" s="11"/>
       <c r="C756" s="10"/>
@@ -19543,7 +19543,7 @@
       <c r="V756" s="4"/>
       <c r="W756" s="4"/>
     </row>
-    <row r="757" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="10"/>
       <c r="B757" s="11"/>
       <c r="C757" s="10"/>
@@ -19568,7 +19568,7 @@
       <c r="V757" s="4"/>
       <c r="W757" s="4"/>
     </row>
-    <row r="758" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="10"/>
       <c r="B758" s="11"/>
       <c r="C758" s="10"/>
@@ -19593,7 +19593,7 @@
       <c r="V758" s="4"/>
       <c r="W758" s="4"/>
     </row>
-    <row r="759" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="10"/>
       <c r="B759" s="11"/>
       <c r="C759" s="10"/>
@@ -19618,7 +19618,7 @@
       <c r="V759" s="4"/>
       <c r="W759" s="4"/>
     </row>
-    <row r="760" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="10"/>
       <c r="B760" s="11"/>
       <c r="C760" s="10"/>
@@ -19643,7 +19643,7 @@
       <c r="V760" s="4"/>
       <c r="W760" s="4"/>
     </row>
-    <row r="761" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="10"/>
       <c r="B761" s="11"/>
       <c r="C761" s="10"/>
@@ -19668,7 +19668,7 @@
       <c r="V761" s="4"/>
       <c r="W761" s="4"/>
     </row>
-    <row r="762" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="10"/>
       <c r="B762" s="11"/>
       <c r="C762" s="10"/>
@@ -19693,7 +19693,7 @@
       <c r="V762" s="4"/>
       <c r="W762" s="4"/>
     </row>
-    <row r="763" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="10"/>
       <c r="B763" s="11"/>
       <c r="C763" s="10"/>
@@ -19718,7 +19718,7 @@
       <c r="V763" s="4"/>
       <c r="W763" s="4"/>
     </row>
-    <row r="764" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="10"/>
       <c r="B764" s="11"/>
       <c r="C764" s="10"/>
@@ -19743,7 +19743,7 @@
       <c r="V764" s="4"/>
       <c r="W764" s="4"/>
     </row>
-    <row r="765" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="10"/>
       <c r="B765" s="11"/>
       <c r="C765" s="10"/>
@@ -19768,7 +19768,7 @@
       <c r="V765" s="4"/>
       <c r="W765" s="4"/>
     </row>
-    <row r="766" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="10"/>
       <c r="B766" s="11"/>
       <c r="C766" s="10"/>
@@ -19793,7 +19793,7 @@
       <c r="V766" s="4"/>
       <c r="W766" s="4"/>
     </row>
-    <row r="767" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="10"/>
       <c r="B767" s="11"/>
       <c r="C767" s="10"/>
@@ -19818,7 +19818,7 @@
       <c r="V767" s="4"/>
       <c r="W767" s="4"/>
     </row>
-    <row r="768" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="10"/>
       <c r="B768" s="11"/>
       <c r="C768" s="10"/>
@@ -19843,7 +19843,7 @@
       <c r="V768" s="4"/>
       <c r="W768" s="4"/>
     </row>
-    <row r="769" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="10"/>
       <c r="B769" s="11"/>
       <c r="C769" s="10"/>
@@ -19868,7 +19868,7 @@
       <c r="V769" s="4"/>
       <c r="W769" s="4"/>
     </row>
-    <row r="770" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="10"/>
       <c r="B770" s="11"/>
       <c r="C770" s="10"/>
@@ -19893,7 +19893,7 @@
       <c r="V770" s="4"/>
       <c r="W770" s="4"/>
     </row>
-    <row r="771" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="10"/>
       <c r="B771" s="11"/>
       <c r="C771" s="10"/>
@@ -19918,7 +19918,7 @@
       <c r="V771" s="4"/>
       <c r="W771" s="4"/>
     </row>
-    <row r="772" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="10"/>
       <c r="B772" s="11"/>
       <c r="C772" s="10"/>
@@ -19943,7 +19943,7 @@
       <c r="V772" s="4"/>
       <c r="W772" s="4"/>
     </row>
-    <row r="773" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="10"/>
       <c r="B773" s="11"/>
       <c r="C773" s="10"/>
@@ -19968,7 +19968,7 @@
       <c r="V773" s="4"/>
       <c r="W773" s="4"/>
     </row>
-    <row r="774" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="10"/>
       <c r="B774" s="11"/>
       <c r="C774" s="10"/>
@@ -19993,7 +19993,7 @@
       <c r="V774" s="4"/>
       <c r="W774" s="4"/>
     </row>
-    <row r="775" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="10"/>
       <c r="B775" s="11"/>
       <c r="C775" s="10"/>
@@ -20018,7 +20018,7 @@
       <c r="V775" s="4"/>
       <c r="W775" s="4"/>
     </row>
-    <row r="776" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="10"/>
       <c r="B776" s="11"/>
       <c r="C776" s="10"/>
@@ -20043,7 +20043,7 @@
       <c r="V776" s="4"/>
       <c r="W776" s="4"/>
     </row>
-    <row r="777" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="10"/>
       <c r="B777" s="11"/>
       <c r="C777" s="10"/>
@@ -20068,7 +20068,7 @@
       <c r="V777" s="4"/>
       <c r="W777" s="4"/>
     </row>
-    <row r="778" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="10"/>
       <c r="B778" s="11"/>
       <c r="C778" s="10"/>
@@ -20093,7 +20093,7 @@
       <c r="V778" s="4"/>
       <c r="W778" s="4"/>
     </row>
-    <row r="779" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="10"/>
       <c r="B779" s="11"/>
       <c r="C779" s="10"/>
@@ -20118,7 +20118,7 @@
       <c r="V779" s="4"/>
       <c r="W779" s="4"/>
     </row>
-    <row r="780" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="10"/>
       <c r="B780" s="11"/>
       <c r="C780" s="10"/>
@@ -20143,7 +20143,7 @@
       <c r="V780" s="4"/>
       <c r="W780" s="4"/>
     </row>
-    <row r="781" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="10"/>
       <c r="B781" s="11"/>
       <c r="C781" s="10"/>
@@ -20168,7 +20168,7 @@
       <c r="V781" s="4"/>
       <c r="W781" s="4"/>
     </row>
-    <row r="782" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="10"/>
       <c r="B782" s="11"/>
       <c r="C782" s="10"/>
@@ -20193,7 +20193,7 @@
       <c r="V782" s="4"/>
       <c r="W782" s="4"/>
     </row>
-    <row r="783" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="10"/>
       <c r="B783" s="11"/>
       <c r="C783" s="10"/>
@@ -20218,7 +20218,7 @@
       <c r="V783" s="4"/>
       <c r="W783" s="4"/>
     </row>
-    <row r="784" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="10"/>
       <c r="B784" s="11"/>
       <c r="C784" s="10"/>
@@ -20243,7 +20243,7 @@
       <c r="V784" s="4"/>
       <c r="W784" s="4"/>
     </row>
-    <row r="785" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="10"/>
       <c r="B785" s="11"/>
       <c r="C785" s="10"/>
@@ -20268,7 +20268,7 @@
       <c r="V785" s="4"/>
       <c r="W785" s="4"/>
     </row>
-    <row r="786" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="10"/>
       <c r="B786" s="11"/>
       <c r="C786" s="10"/>
@@ -20293,7 +20293,7 @@
       <c r="V786" s="4"/>
       <c r="W786" s="4"/>
     </row>
-    <row r="787" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="10"/>
       <c r="B787" s="11"/>
       <c r="C787" s="10"/>
@@ -20318,7 +20318,7 @@
       <c r="V787" s="4"/>
       <c r="W787" s="4"/>
     </row>
-    <row r="788" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="10"/>
       <c r="B788" s="11"/>
       <c r="C788" s="10"/>
@@ -20343,7 +20343,7 @@
       <c r="V788" s="4"/>
       <c r="W788" s="4"/>
     </row>
-    <row r="789" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="10"/>
       <c r="B789" s="11"/>
       <c r="C789" s="10"/>
@@ -20368,7 +20368,7 @@
       <c r="V789" s="4"/>
       <c r="W789" s="4"/>
     </row>
-    <row r="790" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="10"/>
       <c r="B790" s="11"/>
       <c r="C790" s="10"/>
@@ -20393,7 +20393,7 @@
       <c r="V790" s="4"/>
       <c r="W790" s="4"/>
     </row>
-    <row r="791" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="10"/>
       <c r="B791" s="11"/>
       <c r="C791" s="10"/>
@@ -20418,7 +20418,7 @@
       <c r="V791" s="4"/>
       <c r="W791" s="4"/>
     </row>
-    <row r="792" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="10"/>
       <c r="B792" s="11"/>
       <c r="C792" s="10"/>
@@ -20443,7 +20443,7 @@
       <c r="V792" s="4"/>
       <c r="W792" s="4"/>
     </row>
-    <row r="793" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="10"/>
       <c r="B793" s="11"/>
       <c r="C793" s="10"/>
@@ -20468,7 +20468,7 @@
       <c r="V793" s="4"/>
       <c r="W793" s="4"/>
     </row>
-    <row r="794" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="10"/>
       <c r="B794" s="11"/>
       <c r="C794" s="10"/>
@@ -20493,7 +20493,7 @@
       <c r="V794" s="4"/>
       <c r="W794" s="4"/>
     </row>
-    <row r="795" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="10"/>
       <c r="B795" s="11"/>
       <c r="C795" s="10"/>
@@ -20518,7 +20518,7 @@
       <c r="V795" s="4"/>
       <c r="W795" s="4"/>
     </row>
-    <row r="796" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="10"/>
       <c r="B796" s="11"/>
       <c r="C796" s="10"/>
@@ -20543,7 +20543,7 @@
       <c r="V796" s="4"/>
       <c r="W796" s="4"/>
     </row>
-    <row r="797" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="10"/>
       <c r="B797" s="11"/>
       <c r="C797" s="10"/>
@@ -20568,7 +20568,7 @@
       <c r="V797" s="4"/>
       <c r="W797" s="4"/>
     </row>
-    <row r="798" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="10"/>
       <c r="B798" s="11"/>
       <c r="C798" s="10"/>
@@ -20593,7 +20593,7 @@
       <c r="V798" s="4"/>
       <c r="W798" s="4"/>
     </row>
-    <row r="799" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="10"/>
       <c r="B799" s="11"/>
       <c r="C799" s="10"/>
@@ -20618,7 +20618,7 @@
       <c r="V799" s="4"/>
       <c r="W799" s="4"/>
     </row>
-    <row r="800" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="10"/>
       <c r="B800" s="11"/>
       <c r="C800" s="10"/>
@@ -20643,7 +20643,7 @@
       <c r="V800" s="4"/>
       <c r="W800" s="4"/>
     </row>
-    <row r="801" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="10"/>
       <c r="B801" s="11"/>
       <c r="C801" s="10"/>
@@ -20668,7 +20668,7 @@
       <c r="V801" s="4"/>
       <c r="W801" s="4"/>
     </row>
-    <row r="802" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="10"/>
       <c r="B802" s="11"/>
       <c r="C802" s="10"/>
@@ -20693,7 +20693,7 @@
       <c r="V802" s="4"/>
       <c r="W802" s="4"/>
     </row>
-    <row r="803" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="10"/>
       <c r="B803" s="11"/>
       <c r="C803" s="10"/>
@@ -20718,7 +20718,7 @@
       <c r="V803" s="4"/>
       <c r="W803" s="4"/>
     </row>
-    <row r="804" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="10"/>
       <c r="B804" s="11"/>
       <c r="C804" s="10"/>
@@ -20743,7 +20743,7 @@
       <c r="V804" s="4"/>
       <c r="W804" s="4"/>
     </row>
-    <row r="805" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="10"/>
       <c r="B805" s="11"/>
       <c r="C805" s="10"/>
@@ -20768,7 +20768,7 @@
       <c r="V805" s="4"/>
       <c r="W805" s="4"/>
     </row>
-    <row r="806" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="10"/>
       <c r="B806" s="11"/>
       <c r="C806" s="10"/>
@@ -20793,7 +20793,7 @@
       <c r="V806" s="4"/>
       <c r="W806" s="4"/>
     </row>
-    <row r="807" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="10"/>
       <c r="B807" s="11"/>
       <c r="C807" s="10"/>
@@ -20818,7 +20818,7 @@
       <c r="V807" s="4"/>
       <c r="W807" s="4"/>
     </row>
-    <row r="808" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="10"/>
       <c r="B808" s="11"/>
       <c r="C808" s="10"/>
@@ -20843,7 +20843,7 @@
       <c r="V808" s="4"/>
       <c r="W808" s="4"/>
     </row>
-    <row r="809" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="10"/>
       <c r="B809" s="11"/>
       <c r="C809" s="10"/>
@@ -20868,7 +20868,7 @@
       <c r="V809" s="4"/>
       <c r="W809" s="4"/>
     </row>
-    <row r="810" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="10"/>
       <c r="B810" s="11"/>
       <c r="C810" s="10"/>
@@ -20893,7 +20893,7 @@
       <c r="V810" s="4"/>
       <c r="W810" s="4"/>
     </row>
-    <row r="811" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="10"/>
       <c r="B811" s="11"/>
       <c r="C811" s="10"/>
@@ -20918,7 +20918,7 @@
       <c r="V811" s="4"/>
       <c r="W811" s="4"/>
     </row>
-    <row r="812" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="10"/>
       <c r="B812" s="11"/>
       <c r="C812" s="10"/>
@@ -20943,7 +20943,7 @@
       <c r="V812" s="4"/>
       <c r="W812" s="4"/>
     </row>
-    <row r="813" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="10"/>
       <c r="B813" s="11"/>
       <c r="C813" s="10"/>
@@ -20968,7 +20968,7 @@
       <c r="V813" s="4"/>
       <c r="W813" s="4"/>
     </row>
-    <row r="814" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="10"/>
       <c r="B814" s="11"/>
       <c r="C814" s="10"/>
@@ -20993,7 +20993,7 @@
       <c r="V814" s="4"/>
       <c r="W814" s="4"/>
     </row>
-    <row r="815" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="10"/>
       <c r="B815" s="11"/>
       <c r="C815" s="10"/>
@@ -21018,7 +21018,7 @@
       <c r="V815" s="4"/>
       <c r="W815" s="4"/>
     </row>
-    <row r="816" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="10"/>
       <c r="B816" s="11"/>
       <c r="C816" s="10"/>
@@ -21043,7 +21043,7 @@
       <c r="V816" s="4"/>
       <c r="W816" s="4"/>
     </row>
-    <row r="817" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="10"/>
       <c r="B817" s="11"/>
       <c r="C817" s="10"/>
@@ -21068,7 +21068,7 @@
       <c r="V817" s="4"/>
       <c r="W817" s="4"/>
     </row>
-    <row r="818" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="10"/>
       <c r="B818" s="11"/>
       <c r="C818" s="10"/>
@@ -21093,7 +21093,7 @@
       <c r="V818" s="4"/>
       <c r="W818" s="4"/>
     </row>
-    <row r="819" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="10"/>
       <c r="B819" s="11"/>
       <c r="C819" s="10"/>
@@ -21118,7 +21118,7 @@
       <c r="V819" s="4"/>
       <c r="W819" s="4"/>
     </row>
-    <row r="820" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="10"/>
       <c r="B820" s="11"/>
       <c r="C820" s="10"/>
@@ -21143,7 +21143,7 @@
       <c r="V820" s="4"/>
       <c r="W820" s="4"/>
     </row>
-    <row r="821" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="10"/>
       <c r="B821" s="11"/>
       <c r="C821" s="10"/>
@@ -21168,7 +21168,7 @@
       <c r="V821" s="4"/>
       <c r="W821" s="4"/>
     </row>
-    <row r="822" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="10"/>
       <c r="B822" s="11"/>
       <c r="C822" s="10"/>
@@ -21193,7 +21193,7 @@
       <c r="V822" s="4"/>
       <c r="W822" s="4"/>
     </row>
-    <row r="823" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="10"/>
       <c r="B823" s="11"/>
       <c r="C823" s="10"/>
@@ -21218,7 +21218,7 @@
       <c r="V823" s="4"/>
       <c r="W823" s="4"/>
     </row>
-    <row r="824" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="10"/>
       <c r="B824" s="11"/>
       <c r="C824" s="10"/>
@@ -21243,7 +21243,7 @@
       <c r="V824" s="4"/>
       <c r="W824" s="4"/>
     </row>
-    <row r="825" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="10"/>
       <c r="B825" s="11"/>
       <c r="C825" s="10"/>
@@ -21268,7 +21268,7 @@
       <c r="V825" s="4"/>
       <c r="W825" s="4"/>
     </row>
-    <row r="826" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="10"/>
       <c r="B826" s="11"/>
       <c r="C826" s="10"/>
@@ -21293,7 +21293,7 @@
       <c r="V826" s="4"/>
       <c r="W826" s="4"/>
     </row>
-    <row r="827" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="10"/>
       <c r="B827" s="11"/>
       <c r="C827" s="10"/>
@@ -21318,7 +21318,7 @@
       <c r="V827" s="4"/>
       <c r="W827" s="4"/>
     </row>
-    <row r="828" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="10"/>
       <c r="B828" s="11"/>
       <c r="C828" s="10"/>
@@ -21343,7 +21343,7 @@
       <c r="V828" s="4"/>
       <c r="W828" s="4"/>
     </row>
-    <row r="829" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="10"/>
       <c r="B829" s="11"/>
       <c r="C829" s="10"/>
@@ -21368,7 +21368,7 @@
       <c r="V829" s="4"/>
       <c r="W829" s="4"/>
     </row>
-    <row r="830" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="10"/>
       <c r="B830" s="11"/>
       <c r="C830" s="10"/>
@@ -21393,7 +21393,7 @@
       <c r="V830" s="4"/>
       <c r="W830" s="4"/>
     </row>
-    <row r="831" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="10"/>
       <c r="B831" s="11"/>
       <c r="C831" s="10"/>
@@ -21418,7 +21418,7 @@
       <c r="V831" s="4"/>
       <c r="W831" s="4"/>
     </row>
-    <row r="832" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="10"/>
       <c r="B832" s="11"/>
       <c r="C832" s="10"/>
@@ -21443,7 +21443,7 @@
       <c r="V832" s="4"/>
       <c r="W832" s="4"/>
     </row>
-    <row r="833" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="10"/>
       <c r="B833" s="11"/>
       <c r="C833" s="10"/>
@@ -21468,7 +21468,7 @@
       <c r="V833" s="4"/>
       <c r="W833" s="4"/>
     </row>
-    <row r="834" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="10"/>
       <c r="B834" s="11"/>
       <c r="C834" s="10"/>
@@ -21493,7 +21493,7 @@
       <c r="V834" s="4"/>
       <c r="W834" s="4"/>
     </row>
-    <row r="835" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="10"/>
       <c r="B835" s="11"/>
       <c r="C835" s="10"/>
@@ -21518,7 +21518,7 @@
       <c r="V835" s="4"/>
       <c r="W835" s="4"/>
     </row>
-    <row r="836" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="10"/>
       <c r="B836" s="11"/>
       <c r="C836" s="10"/>
@@ -21543,7 +21543,7 @@
       <c r="V836" s="4"/>
       <c r="W836" s="4"/>
     </row>
-    <row r="837" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="10"/>
       <c r="B837" s="11"/>
       <c r="C837" s="10"/>
@@ -21568,7 +21568,7 @@
       <c r="V837" s="4"/>
       <c r="W837" s="4"/>
     </row>
-    <row r="838" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="10"/>
       <c r="B838" s="11"/>
       <c r="C838" s="10"/>
@@ -21593,7 +21593,7 @@
       <c r="V838" s="4"/>
       <c r="W838" s="4"/>
     </row>
-    <row r="839" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="10"/>
       <c r="B839" s="11"/>
       <c r="C839" s="10"/>
@@ -21618,7 +21618,7 @@
       <c r="V839" s="4"/>
       <c r="W839" s="4"/>
     </row>
-    <row r="840" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="10"/>
       <c r="B840" s="11"/>
       <c r="C840" s="10"/>
@@ -21643,7 +21643,7 @@
       <c r="V840" s="4"/>
       <c r="W840" s="4"/>
     </row>
-    <row r="841" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="10"/>
       <c r="B841" s="11"/>
       <c r="C841" s="10"/>
@@ -21668,7 +21668,7 @@
       <c r="V841" s="4"/>
       <c r="W841" s="4"/>
     </row>
-    <row r="842" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="10"/>
       <c r="B842" s="11"/>
       <c r="C842" s="10"/>
@@ -21693,7 +21693,7 @@
       <c r="V842" s="4"/>
       <c r="W842" s="4"/>
     </row>
-    <row r="843" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="10"/>
       <c r="B843" s="11"/>
       <c r="C843" s="10"/>
@@ -21718,7 +21718,7 @@
       <c r="V843" s="4"/>
       <c r="W843" s="4"/>
     </row>
-    <row r="844" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="10"/>
       <c r="B844" s="11"/>
       <c r="C844" s="10"/>
@@ -21743,7 +21743,7 @@
       <c r="V844" s="4"/>
       <c r="W844" s="4"/>
     </row>
-    <row r="845" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="10"/>
       <c r="B845" s="11"/>
       <c r="C845" s="10"/>
@@ -21768,7 +21768,7 @@
       <c r="V845" s="4"/>
       <c r="W845" s="4"/>
     </row>
-    <row r="846" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="10"/>
       <c r="B846" s="11"/>
       <c r="C846" s="10"/>
@@ -21793,7 +21793,7 @@
       <c r="V846" s="4"/>
       <c r="W846" s="4"/>
     </row>
-    <row r="847" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="10"/>
       <c r="B847" s="11"/>
       <c r="C847" s="10"/>
@@ -21818,7 +21818,7 @@
       <c r="V847" s="4"/>
       <c r="W847" s="4"/>
     </row>
-    <row r="848" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="10"/>
       <c r="B848" s="11"/>
       <c r="C848" s="10"/>
@@ -21843,7 +21843,7 @@
       <c r="V848" s="4"/>
       <c r="W848" s="4"/>
     </row>
-    <row r="849" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="10"/>
       <c r="B849" s="11"/>
       <c r="C849" s="10"/>
@@ -21868,7 +21868,7 @@
       <c r="V849" s="4"/>
       <c r="W849" s="4"/>
     </row>
-    <row r="850" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="10"/>
       <c r="B850" s="11"/>
       <c r="C850" s="10"/>
@@ -21893,7 +21893,7 @@
       <c r="V850" s="4"/>
       <c r="W850" s="4"/>
     </row>
-    <row r="851" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="10"/>
       <c r="B851" s="11"/>
       <c r="C851" s="10"/>
@@ -21918,7 +21918,7 @@
       <c r="V851" s="4"/>
       <c r="W851" s="4"/>
     </row>
-    <row r="852" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="10"/>
       <c r="B852" s="11"/>
       <c r="C852" s="10"/>
@@ -21943,7 +21943,7 @@
       <c r="V852" s="4"/>
       <c r="W852" s="4"/>
     </row>
-    <row r="853" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="10"/>
       <c r="B853" s="11"/>
       <c r="C853" s="10"/>
@@ -21968,7 +21968,7 @@
       <c r="V853" s="4"/>
       <c r="W853" s="4"/>
     </row>
-    <row r="854" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="10"/>
       <c r="B854" s="11"/>
       <c r="C854" s="10"/>
@@ -21993,7 +21993,7 @@
       <c r="V854" s="4"/>
       <c r="W854" s="4"/>
     </row>
-    <row r="855" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="10"/>
       <c r="B855" s="11"/>
       <c r="C855" s="10"/>
@@ -22018,7 +22018,7 @@
       <c r="V855" s="4"/>
       <c r="W855" s="4"/>
     </row>
-    <row r="856" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="10"/>
       <c r="B856" s="11"/>
       <c r="C856" s="10"/>
@@ -22043,7 +22043,7 @@
       <c r="V856" s="4"/>
       <c r="W856" s="4"/>
     </row>
-    <row r="857" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="10"/>
       <c r="B857" s="11"/>
       <c r="C857" s="10"/>
@@ -22068,7 +22068,7 @@
       <c r="V857" s="4"/>
       <c r="W857" s="4"/>
     </row>
-    <row r="858" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="10"/>
       <c r="B858" s="11"/>
       <c r="C858" s="10"/>
@@ -22093,7 +22093,7 @@
       <c r="V858" s="4"/>
       <c r="W858" s="4"/>
     </row>
-    <row r="859" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="10"/>
       <c r="B859" s="11"/>
       <c r="C859" s="10"/>
@@ -22118,7 +22118,7 @@
       <c r="V859" s="4"/>
       <c r="W859" s="4"/>
     </row>
-    <row r="860" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="10"/>
       <c r="B860" s="11"/>
       <c r="C860" s="10"/>
@@ -22143,7 +22143,7 @@
       <c r="V860" s="4"/>
       <c r="W860" s="4"/>
     </row>
-    <row r="861" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="10"/>
       <c r="B861" s="11"/>
       <c r="C861" s="10"/>
@@ -22168,7 +22168,7 @@
       <c r="V861" s="4"/>
       <c r="W861" s="4"/>
     </row>
-    <row r="862" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="10"/>
       <c r="B862" s="11"/>
       <c r="C862" s="10"/>
@@ -22193,7 +22193,7 @@
       <c r="V862" s="4"/>
       <c r="W862" s="4"/>
     </row>
-    <row r="863" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="10"/>
       <c r="B863" s="11"/>
       <c r="C863" s="10"/>
@@ -22218,7 +22218,7 @@
       <c r="V863" s="4"/>
       <c r="W863" s="4"/>
     </row>
-    <row r="864" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="10"/>
       <c r="B864" s="11"/>
       <c r="C864" s="10"/>
@@ -22243,7 +22243,7 @@
       <c r="V864" s="4"/>
       <c r="W864" s="4"/>
     </row>
-    <row r="865" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="10"/>
       <c r="B865" s="11"/>
       <c r="C865" s="10"/>
@@ -22268,7 +22268,7 @@
       <c r="V865" s="4"/>
       <c r="W865" s="4"/>
     </row>
-    <row r="866" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="10"/>
       <c r="B866" s="11"/>
       <c r="C866" s="10"/>
@@ -22293,7 +22293,7 @@
       <c r="V866" s="4"/>
       <c r="W866" s="4"/>
     </row>
-    <row r="867" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="10"/>
       <c r="B867" s="11"/>
       <c r="C867" s="10"/>
@@ -22318,7 +22318,7 @@
       <c r="V867" s="4"/>
       <c r="W867" s="4"/>
     </row>
-    <row r="868" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="10"/>
       <c r="B868" s="11"/>
       <c r="C868" s="10"/>
@@ -22343,7 +22343,7 @@
       <c r="V868" s="4"/>
       <c r="W868" s="4"/>
     </row>
-    <row r="869" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="10"/>
       <c r="B869" s="11"/>
       <c r="C869" s="10"/>
@@ -22368,7 +22368,7 @@
       <c r="V869" s="4"/>
       <c r="W869" s="4"/>
     </row>
-    <row r="870" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="10"/>
       <c r="B870" s="11"/>
       <c r="C870" s="10"/>
@@ -22393,7 +22393,7 @@
       <c r="V870" s="4"/>
       <c r="W870" s="4"/>
     </row>
-    <row r="871" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="10"/>
       <c r="B871" s="11"/>
       <c r="C871" s="10"/>
@@ -22418,7 +22418,7 @@
       <c r="V871" s="4"/>
       <c r="W871" s="4"/>
     </row>
-    <row r="872" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="10"/>
       <c r="B872" s="11"/>
       <c r="C872" s="10"/>
@@ -22443,7 +22443,7 @@
       <c r="V872" s="4"/>
       <c r="W872" s="4"/>
     </row>
-    <row r="873" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="10"/>
       <c r="B873" s="11"/>
       <c r="C873" s="10"/>
@@ -22468,7 +22468,7 @@
       <c r="V873" s="4"/>
       <c r="W873" s="4"/>
     </row>
-    <row r="874" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="10"/>
       <c r="B874" s="11"/>
       <c r="C874" s="10"/>
@@ -22493,7 +22493,7 @@
       <c r="V874" s="4"/>
       <c r="W874" s="4"/>
     </row>
-    <row r="875" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="10"/>
       <c r="B875" s="11"/>
       <c r="C875" s="10"/>
@@ -22518,7 +22518,7 @@
       <c r="V875" s="4"/>
       <c r="W875" s="4"/>
     </row>
-    <row r="876" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="10"/>
       <c r="B876" s="11"/>
       <c r="C876" s="10"/>
@@ -22543,7 +22543,7 @@
       <c r="V876" s="4"/>
       <c r="W876" s="4"/>
     </row>
-    <row r="877" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="10"/>
       <c r="B877" s="11"/>
       <c r="C877" s="10"/>
@@ -22568,7 +22568,7 @@
       <c r="V877" s="4"/>
       <c r="W877" s="4"/>
     </row>
-    <row r="878" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="10"/>
       <c r="B878" s="11"/>
       <c r="C878" s="10"/>
@@ -22593,7 +22593,7 @@
       <c r="V878" s="4"/>
       <c r="W878" s="4"/>
     </row>
-    <row r="879" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="10"/>
       <c r="B879" s="11"/>
       <c r="C879" s="10"/>
@@ -22618,7 +22618,7 @@
       <c r="V879" s="4"/>
       <c r="W879" s="4"/>
     </row>
-    <row r="880" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="10"/>
       <c r="B880" s="11"/>
       <c r="C880" s="10"/>
@@ -22643,7 +22643,7 @@
       <c r="V880" s="4"/>
       <c r="W880" s="4"/>
     </row>
-    <row r="881" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="10"/>
       <c r="B881" s="11"/>
       <c r="C881" s="10"/>
@@ -22668,7 +22668,7 @@
       <c r="V881" s="4"/>
       <c r="W881" s="4"/>
     </row>
-    <row r="882" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="10"/>
       <c r="B882" s="11"/>
       <c r="C882" s="10"/>
@@ -22693,7 +22693,7 @@
       <c r="V882" s="4"/>
       <c r="W882" s="4"/>
     </row>
-    <row r="883" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="10"/>
       <c r="B883" s="11"/>
       <c r="C883" s="10"/>
@@ -22718,7 +22718,7 @@
       <c r="V883" s="4"/>
       <c r="W883" s="4"/>
     </row>
-    <row r="884" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="10"/>
       <c r="B884" s="11"/>
       <c r="C884" s="10"/>
@@ -22743,7 +22743,7 @@
       <c r="V884" s="4"/>
       <c r="W884" s="4"/>
     </row>
-    <row r="885" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="10"/>
       <c r="B885" s="11"/>
       <c r="C885" s="10"/>
@@ -22768,7 +22768,7 @@
       <c r="V885" s="4"/>
       <c r="W885" s="4"/>
     </row>
-    <row r="886" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="10"/>
       <c r="B886" s="11"/>
       <c r="C886" s="10"/>
@@ -22793,7 +22793,7 @@
       <c r="V886" s="4"/>
       <c r="W886" s="4"/>
     </row>
-    <row r="887" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="10"/>
       <c r="B887" s="11"/>
       <c r="C887" s="10"/>
@@ -22818,7 +22818,7 @@
       <c r="V887" s="4"/>
       <c r="W887" s="4"/>
     </row>
-    <row r="888" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="10"/>
       <c r="B888" s="11"/>
       <c r="C888" s="10"/>
@@ -22843,7 +22843,7 @@
       <c r="V888" s="4"/>
       <c r="W888" s="4"/>
     </row>
-    <row r="889" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="10"/>
       <c r="B889" s="11"/>
       <c r="C889" s="10"/>
@@ -22868,7 +22868,7 @@
       <c r="V889" s="4"/>
       <c r="W889" s="4"/>
     </row>
-    <row r="890" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="10"/>
       <c r="B890" s="11"/>
       <c r="C890" s="10"/>
@@ -22893,7 +22893,7 @@
       <c r="V890" s="4"/>
       <c r="W890" s="4"/>
     </row>
-    <row r="891" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="10"/>
       <c r="B891" s="11"/>
       <c r="C891" s="10"/>
@@ -22918,7 +22918,7 @@
       <c r="V891" s="4"/>
       <c r="W891" s="4"/>
     </row>
-    <row r="892" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="10"/>
       <c r="B892" s="11"/>
       <c r="C892" s="10"/>
@@ -22943,7 +22943,7 @@
       <c r="V892" s="4"/>
       <c r="W892" s="4"/>
     </row>
-    <row r="893" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="10"/>
       <c r="B893" s="11"/>
       <c r="C893" s="10"/>
@@ -22968,7 +22968,7 @@
       <c r="V893" s="4"/>
       <c r="W893" s="4"/>
     </row>
-    <row r="894" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="10"/>
       <c r="B894" s="11"/>
       <c r="C894" s="10"/>
@@ -22993,7 +22993,7 @@
       <c r="V894" s="4"/>
       <c r="W894" s="4"/>
     </row>
-    <row r="895" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="10"/>
       <c r="B895" s="11"/>
       <c r="C895" s="10"/>
@@ -23018,7 +23018,7 @@
       <c r="V895" s="4"/>
       <c r="W895" s="4"/>
     </row>
-    <row r="896" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="10"/>
       <c r="B896" s="11"/>
       <c r="C896" s="10"/>
@@ -23043,7 +23043,7 @@
       <c r="V896" s="4"/>
       <c r="W896" s="4"/>
     </row>
-    <row r="897" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="10"/>
       <c r="B897" s="11"/>
       <c r="C897" s="10"/>
@@ -23068,7 +23068,7 @@
       <c r="V897" s="4"/>
       <c r="W897" s="4"/>
     </row>
-    <row r="898" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="10"/>
       <c r="B898" s="11"/>
       <c r="C898" s="10"/>
@@ -23093,7 +23093,7 @@
       <c r="V898" s="4"/>
       <c r="W898" s="4"/>
     </row>
-    <row r="899" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="10"/>
       <c r="B899" s="11"/>
       <c r="C899" s="10"/>
@@ -23118,7 +23118,7 @@
       <c r="V899" s="4"/>
       <c r="W899" s="4"/>
     </row>
-    <row r="900" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="10"/>
       <c r="B900" s="11"/>
       <c r="C900" s="10"/>
@@ -23143,7 +23143,7 @@
       <c r="V900" s="4"/>
       <c r="W900" s="4"/>
     </row>
-    <row r="901" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="10"/>
       <c r="B901" s="11"/>
       <c r="C901" s="10"/>
@@ -23168,7 +23168,7 @@
       <c r="V901" s="4"/>
       <c r="W901" s="4"/>
     </row>
-    <row r="902" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="10"/>
       <c r="B902" s="11"/>
       <c r="C902" s="10"/>
@@ -23193,7 +23193,7 @@
       <c r="V902" s="4"/>
       <c r="W902" s="4"/>
     </row>
-    <row r="903" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="10"/>
       <c r="B903" s="11"/>
       <c r="C903" s="10"/>
@@ -23218,7 +23218,7 @@
       <c r="V903" s="4"/>
       <c r="W903" s="4"/>
     </row>
-    <row r="904" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="10"/>
       <c r="B904" s="11"/>
       <c r="C904" s="10"/>
@@ -23243,7 +23243,7 @@
       <c r="V904" s="4"/>
       <c r="W904" s="4"/>
     </row>
-    <row r="905" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="10"/>
       <c r="B905" s="11"/>
       <c r="C905" s="10"/>
@@ -23268,7 +23268,7 @@
       <c r="V905" s="4"/>
       <c r="W905" s="4"/>
     </row>
-    <row r="906" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="10"/>
       <c r="B906" s="11"/>
       <c r="C906" s="10"/>
@@ -23293,7 +23293,7 @@
       <c r="V906" s="4"/>
       <c r="W906" s="4"/>
     </row>
-    <row r="907" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="10"/>
       <c r="B907" s="11"/>
       <c r="C907" s="10"/>
@@ -23318,7 +23318,7 @@
       <c r="V907" s="4"/>
       <c r="W907" s="4"/>
     </row>
-    <row r="908" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="10"/>
       <c r="B908" s="11"/>
       <c r="C908" s="10"/>
@@ -23343,7 +23343,7 @@
       <c r="V908" s="4"/>
       <c r="W908" s="4"/>
     </row>
-    <row r="909" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="10"/>
       <c r="B909" s="11"/>
       <c r="C909" s="10"/>
@@ -23368,7 +23368,7 @@
       <c r="V909" s="4"/>
       <c r="W909" s="4"/>
     </row>
-    <row r="910" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="10"/>
       <c r="B910" s="11"/>
       <c r="C910" s="10"/>
@@ -23393,7 +23393,7 @@
       <c r="V910" s="4"/>
       <c r="W910" s="4"/>
     </row>
-    <row r="911" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="10"/>
       <c r="B911" s="11"/>
       <c r="C911" s="10"/>
@@ -23418,7 +23418,7 @@
       <c r="V911" s="4"/>
       <c r="W911" s="4"/>
     </row>
-    <row r="912" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="10"/>
       <c r="B912" s="11"/>
       <c r="C912" s="10"/>
@@ -23443,7 +23443,7 @@
       <c r="V912" s="4"/>
       <c r="W912" s="4"/>
     </row>
-    <row r="913" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="10"/>
       <c r="B913" s="11"/>
       <c r="C913" s="10"/>
@@ -23468,7 +23468,7 @@
       <c r="V913" s="4"/>
       <c r="W913" s="4"/>
     </row>
-    <row r="914" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="10"/>
       <c r="B914" s="11"/>
       <c r="C914" s="10"/>
@@ -23493,7 +23493,7 @@
       <c r="V914" s="4"/>
       <c r="W914" s="4"/>
     </row>
-    <row r="915" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="10"/>
       <c r="B915" s="11"/>
       <c r="C915" s="10"/>
@@ -23518,7 +23518,7 @@
       <c r="V915" s="4"/>
       <c r="W915" s="4"/>
     </row>
-    <row r="916" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="10"/>
       <c r="B916" s="11"/>
       <c r="C916" s="10"/>
@@ -23543,7 +23543,7 @@
       <c r="V916" s="4"/>
       <c r="W916" s="4"/>
     </row>
-    <row r="917" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="10"/>
       <c r="B917" s="11"/>
       <c r="C917" s="10"/>
@@ -23568,7 +23568,7 @@
       <c r="V917" s="4"/>
       <c r="W917" s="4"/>
     </row>
-    <row r="918" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="10"/>
       <c r="B918" s="11"/>
       <c r="C918" s="10"/>
@@ -23593,7 +23593,7 @@
       <c r="V918" s="4"/>
       <c r="W918" s="4"/>
     </row>
-    <row r="919" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="10"/>
       <c r="B919" s="11"/>
       <c r="C919" s="10"/>
@@ -23618,7 +23618,7 @@
       <c r="V919" s="4"/>
       <c r="W919" s="4"/>
     </row>
-    <row r="920" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="10"/>
       <c r="B920" s="11"/>
       <c r="C920" s="10"/>
@@ -23643,7 +23643,7 @@
       <c r="V920" s="4"/>
       <c r="W920" s="4"/>
     </row>
-    <row r="921" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="10"/>
       <c r="B921" s="11"/>
       <c r="C921" s="10"/>
@@ -23668,7 +23668,7 @@
       <c r="V921" s="4"/>
       <c r="W921" s="4"/>
     </row>
-    <row r="922" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="10"/>
       <c r="B922" s="11"/>
       <c r="C922" s="10"/>
@@ -23693,7 +23693,7 @@
       <c r="V922" s="4"/>
       <c r="W922" s="4"/>
     </row>
-    <row r="923" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="10"/>
       <c r="B923" s="11"/>
       <c r="C923" s="10"/>
@@ -23718,7 +23718,7 @@
       <c r="V923" s="4"/>
       <c r="W923" s="4"/>
     </row>
-    <row r="924" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="10"/>
       <c r="B924" s="11"/>
       <c r="C924" s="10"/>
@@ -23743,7 +23743,7 @@
       <c r="V924" s="4"/>
       <c r="W924" s="4"/>
     </row>
-    <row r="925" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="10"/>
       <c r="B925" s="11"/>
       <c r="C925" s="10"/>
@@ -23768,7 +23768,7 @@
       <c r="V925" s="4"/>
       <c r="W925" s="4"/>
     </row>
-    <row r="926" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="10"/>
       <c r="B926" s="11"/>
       <c r="C926" s="10"/>
@@ -23793,7 +23793,7 @@
       <c r="V926" s="4"/>
       <c r="W926" s="4"/>
     </row>
-    <row r="927" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="10"/>
       <c r="B927" s="11"/>
       <c r="C927" s="10"/>
@@ -23818,7 +23818,7 @@
       <c r="V927" s="4"/>
       <c r="W927" s="4"/>
     </row>
-    <row r="928" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="10"/>
       <c r="B928" s="11"/>
       <c r="C928" s="10"/>
@@ -23843,7 +23843,7 @@
       <c r="V928" s="4"/>
       <c r="W928" s="4"/>
     </row>
-    <row r="929" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="10"/>
       <c r="B929" s="11"/>
       <c r="C929" s="10"/>
@@ -23868,7 +23868,7 @@
       <c r="V929" s="4"/>
       <c r="W929" s="4"/>
     </row>
-    <row r="930" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="10"/>
       <c r="B930" s="11"/>
       <c r="C930" s="10"/>
@@ -23893,7 +23893,7 @@
       <c r="V930" s="4"/>
       <c r="W930" s="4"/>
     </row>
-    <row r="931" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="10"/>
       <c r="B931" s="11"/>
       <c r="C931" s="10"/>
@@ -23918,7 +23918,7 @@
       <c r="V931" s="4"/>
       <c r="W931" s="4"/>
     </row>
-    <row r="932" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="10"/>
       <c r="B932" s="11"/>
       <c r="C932" s="10"/>
@@ -23943,7 +23943,7 @@
       <c r="V932" s="4"/>
       <c r="W932" s="4"/>
     </row>
-    <row r="933" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="10"/>
       <c r="B933" s="11"/>
       <c r="C933" s="10"/>
@@ -23968,7 +23968,7 @@
       <c r="V933" s="4"/>
       <c r="W933" s="4"/>
     </row>
-    <row r="934" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="10"/>
       <c r="B934" s="11"/>
       <c r="C934" s="10"/>
@@ -23993,7 +23993,7 @@
       <c r="V934" s="4"/>
       <c r="W934" s="4"/>
     </row>
-    <row r="935" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="10"/>
       <c r="B935" s="11"/>
       <c r="C935" s="10"/>
@@ -24018,7 +24018,7 @@
       <c r="V935" s="4"/>
       <c r="W935" s="4"/>
     </row>
-    <row r="936" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="10"/>
       <c r="B936" s="11"/>
       <c r="C936" s="10"/>
@@ -24043,7 +24043,7 @@
       <c r="V936" s="4"/>
       <c r="W936" s="4"/>
     </row>
-    <row r="937" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="10"/>
       <c r="B937" s="11"/>
       <c r="C937" s="10"/>
@@ -24068,7 +24068,7 @@
       <c r="V937" s="4"/>
       <c r="W937" s="4"/>
     </row>
-    <row r="938" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="10"/>
       <c r="B938" s="11"/>
       <c r="C938" s="10"/>
@@ -24093,7 +24093,7 @@
       <c r="V938" s="4"/>
       <c r="W938" s="4"/>
     </row>
-    <row r="939" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="10"/>
       <c r="B939" s="11"/>
       <c r="C939" s="10"/>
@@ -24118,7 +24118,7 @@
       <c r="V939" s="4"/>
       <c r="W939" s="4"/>
     </row>
-    <row r="940" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="10"/>
       <c r="B940" s="11"/>
       <c r="C940" s="10"/>
@@ -24143,7 +24143,7 @@
       <c r="V940" s="4"/>
       <c r="W940" s="4"/>
     </row>
-    <row r="941" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="10"/>
       <c r="B941" s="11"/>
       <c r="C941" s="10"/>
@@ -24168,7 +24168,7 @@
       <c r="V941" s="4"/>
       <c r="W941" s="4"/>
     </row>
-    <row r="942" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="10"/>
       <c r="B942" s="11"/>
       <c r="C942" s="10"/>
@@ -24193,7 +24193,7 @@
       <c r="V942" s="4"/>
       <c r="W942" s="4"/>
     </row>
-    <row r="943" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="10"/>
       <c r="B943" s="11"/>
       <c r="C943" s="10"/>
@@ -24218,7 +24218,7 @@
       <c r="V943" s="4"/>
       <c r="W943" s="4"/>
     </row>
-    <row r="944" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="10"/>
       <c r="B944" s="11"/>
       <c r="C944" s="10"/>
@@ -24243,7 +24243,7 @@
       <c r="V944" s="4"/>
       <c r="W944" s="4"/>
     </row>
-    <row r="945" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="10"/>
       <c r="B945" s="11"/>
       <c r="C945" s="10"/>
@@ -24268,7 +24268,7 @@
       <c r="V945" s="4"/>
       <c r="W945" s="4"/>
     </row>
-    <row r="946" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="10"/>
       <c r="B946" s="11"/>
       <c r="C946" s="10"/>
@@ -24293,7 +24293,7 @@
       <c r="V946" s="4"/>
       <c r="W946" s="4"/>
     </row>
-    <row r="947" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="10"/>
       <c r="B947" s="11"/>
       <c r="C947" s="10"/>
@@ -24318,7 +24318,7 @@
       <c r="V947" s="4"/>
       <c r="W947" s="4"/>
     </row>
-    <row r="948" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="10"/>
       <c r="B948" s="11"/>
       <c r="C948" s="10"/>
@@ -24343,7 +24343,7 @@
       <c r="V948" s="4"/>
       <c r="W948" s="4"/>
     </row>
-    <row r="949" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="10"/>
       <c r="B949" s="11"/>
       <c r="C949" s="10"/>
@@ -24368,7 +24368,7 @@
       <c r="V949" s="4"/>
       <c r="W949" s="4"/>
     </row>
-    <row r="950" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="10"/>
       <c r="B950" s="11"/>
       <c r="C950" s="10"/>
@@ -24393,7 +24393,7 @@
       <c r="V950" s="4"/>
       <c r="W950" s="4"/>
     </row>
-    <row r="951" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="10"/>
       <c r="B951" s="11"/>
       <c r="C951" s="10"/>
@@ -24418,7 +24418,7 @@
       <c r="V951" s="4"/>
       <c r="W951" s="4"/>
     </row>
-    <row r="952" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="10"/>
       <c r="B952" s="11"/>
       <c r="C952" s="10"/>
@@ -24443,7 +24443,7 @@
       <c r="V952" s="4"/>
       <c r="W952" s="4"/>
     </row>
-    <row r="953" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="10"/>
       <c r="B953" s="11"/>
       <c r="C953" s="10"/>
@@ -24468,7 +24468,7 @@
       <c r="V953" s="4"/>
       <c r="W953" s="4"/>
     </row>
-    <row r="954" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="10"/>
       <c r="B954" s="11"/>
       <c r="C954" s="10"/>
@@ -24493,7 +24493,7 @@
       <c r="V954" s="4"/>
       <c r="W954" s="4"/>
     </row>
-    <row r="955" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="10"/>
       <c r="B955" s="11"/>
       <c r="C955" s="10"/>
@@ -24518,7 +24518,7 @@
       <c r="V955" s="4"/>
       <c r="W955" s="4"/>
     </row>
-    <row r="956" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="10"/>
       <c r="B956" s="11"/>
       <c r="C956" s="10"/>
@@ -24543,7 +24543,7 @@
       <c r="V956" s="4"/>
       <c r="W956" s="4"/>
     </row>
-    <row r="957" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="10"/>
       <c r="B957" s="11"/>
       <c r="C957" s="10"/>
@@ -24568,7 +24568,7 @@
       <c r="V957" s="4"/>
       <c r="W957" s="4"/>
     </row>
-    <row r="958" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="10"/>
       <c r="B958" s="11"/>
       <c r="C958" s="10"/>
@@ -24593,7 +24593,7 @@
       <c r="V958" s="4"/>
       <c r="W958" s="4"/>
     </row>
-    <row r="959" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="10"/>
       <c r="B959" s="11"/>
       <c r="C959" s="10"/>
@@ -24618,7 +24618,7 @@
       <c r="V959" s="4"/>
       <c r="W959" s="4"/>
     </row>
-    <row r="960" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="10"/>
       <c r="B960" s="11"/>
       <c r="C960" s="10"/>
@@ -24643,7 +24643,7 @@
       <c r="V960" s="4"/>
       <c r="W960" s="4"/>
     </row>
-    <row r="961" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="10"/>
       <c r="B961" s="11"/>
       <c r="C961" s="10"/>
@@ -24668,7 +24668,7 @@
       <c r="V961" s="4"/>
       <c r="W961" s="4"/>
     </row>
-    <row r="962" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="10"/>
       <c r="B962" s="11"/>
       <c r="C962" s="10"/>
@@ -24693,7 +24693,7 @@
       <c r="V962" s="4"/>
       <c r="W962" s="4"/>
     </row>
-    <row r="963" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="10"/>
       <c r="B963" s="11"/>
       <c r="C963" s="10"/>
@@ -24718,7 +24718,7 @@
       <c r="V963" s="4"/>
       <c r="W963" s="4"/>
     </row>
-    <row r="964" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="10"/>
       <c r="B964" s="11"/>
       <c r="C964" s="10"/>
@@ -24743,7 +24743,7 @@
       <c r="V964" s="4"/>
       <c r="W964" s="4"/>
     </row>
-    <row r="965" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="10"/>
       <c r="B965" s="11"/>
       <c r="C965" s="10"/>
@@ -24768,7 +24768,7 @@
       <c r="V965" s="4"/>
       <c r="W965" s="4"/>
     </row>
-    <row r="966" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="10"/>
       <c r="B966" s="11"/>
       <c r="C966" s="10"/>
@@ -24793,7 +24793,7 @@
       <c r="V966" s="4"/>
       <c r="W966" s="4"/>
     </row>
-    <row r="967" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="10"/>
       <c r="B967" s="11"/>
       <c r="C967" s="10"/>
@@ -24818,7 +24818,7 @@
       <c r="V967" s="4"/>
       <c r="W967" s="4"/>
     </row>
-    <row r="968" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="10"/>
       <c r="B968" s="11"/>
       <c r="C968" s="10"/>
@@ -24843,7 +24843,7 @@
       <c r="V968" s="4"/>
       <c r="W968" s="4"/>
     </row>
-    <row r="969" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="10"/>
       <c r="B969" s="11"/>
       <c r="C969" s="10"/>
@@ -24868,7 +24868,7 @@
       <c r="V969" s="4"/>
       <c r="W969" s="4"/>
     </row>
-    <row r="970" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="10"/>
       <c r="B970" s="11"/>
       <c r="C970" s="10"/>
@@ -24893,7 +24893,7 @@
       <c r="V970" s="4"/>
       <c r="W970" s="4"/>
     </row>
-    <row r="971" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="10"/>
       <c r="B971" s="11"/>
       <c r="C971" s="10"/>
@@ -24918,7 +24918,7 @@
       <c r="V971" s="4"/>
       <c r="W971" s="4"/>
     </row>
-    <row r="972" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="10"/>
       <c r="B972" s="11"/>
       <c r="C972" s="10"/>
@@ -24943,7 +24943,7 @@
       <c r="V972" s="4"/>
       <c r="W972" s="4"/>
     </row>
-    <row r="973" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="10"/>
       <c r="B973" s="11"/>
       <c r="C973" s="10"/>
@@ -24968,7 +24968,7 @@
       <c r="V973" s="4"/>
       <c r="W973" s="4"/>
     </row>
-    <row r="974" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="10"/>
       <c r="B974" s="11"/>
       <c r="C974" s="10"/>
@@ -24993,7 +24993,7 @@
       <c r="V974" s="4"/>
       <c r="W974" s="4"/>
     </row>
-    <row r="975" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="10"/>
       <c r="B975" s="11"/>
       <c r="C975" s="10"/>
@@ -25018,7 +25018,7 @@
       <c r="V975" s="4"/>
       <c r="W975" s="4"/>
     </row>
-    <row r="976" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="10"/>
       <c r="B976" s="11"/>
       <c r="C976" s="10"/>
@@ -25043,7 +25043,7 @@
       <c r="V976" s="4"/>
       <c r="W976" s="4"/>
     </row>
-    <row r="977" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="10"/>
       <c r="B977" s="11"/>
       <c r="C977" s="10"/>
@@ -25068,7 +25068,7 @@
       <c r="V977" s="4"/>
       <c r="W977" s="4"/>
     </row>
-    <row r="978" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="10"/>
       <c r="B978" s="11"/>
       <c r="C978" s="10"/>
@@ -25093,7 +25093,7 @@
       <c r="V978" s="4"/>
       <c r="W978" s="4"/>
     </row>
-    <row r="979" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="10"/>
       <c r="B979" s="11"/>
       <c r="C979" s="10"/>
@@ -25118,7 +25118,7 @@
       <c r="V979" s="4"/>
       <c r="W979" s="4"/>
     </row>
-    <row r="980" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="10"/>
       <c r="B980" s="11"/>
       <c r="C980" s="10"/>
@@ -25143,7 +25143,7 @@
       <c r="V980" s="4"/>
       <c r="W980" s="4"/>
     </row>
-    <row r="981" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="10"/>
       <c r="B981" s="11"/>
       <c r="C981" s="10"/>
@@ -25168,7 +25168,7 @@
       <c r="V981" s="4"/>
       <c r="W981" s="4"/>
     </row>
-    <row r="982" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="10"/>
       <c r="B982" s="11"/>
       <c r="C982" s="10"/>
@@ -25193,7 +25193,7 @@
       <c r="V982" s="4"/>
       <c r="W982" s="4"/>
     </row>
-    <row r="983" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="10"/>
       <c r="B983" s="11"/>
       <c r="C983" s="10"/>
@@ -25218,7 +25218,7 @@
       <c r="V983" s="4"/>
       <c r="W983" s="4"/>
     </row>
-    <row r="984" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="10"/>
       <c r="B984" s="11"/>
       <c r="C984" s="10"/>
@@ -25243,7 +25243,7 @@
       <c r="V984" s="4"/>
       <c r="W984" s="4"/>
     </row>
-    <row r="985" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="10"/>
       <c r="B985" s="11"/>
       <c r="C985" s="10"/>
@@ -25268,7 +25268,7 @@
       <c r="V985" s="4"/>
       <c r="W985" s="4"/>
     </row>
-    <row r="986" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="10"/>
       <c r="B986" s="11"/>
       <c r="C986" s="10"/>
@@ -25293,7 +25293,7 @@
       <c r="V986" s="4"/>
       <c r="W986" s="4"/>
     </row>
-    <row r="987" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="10"/>
       <c r="B987" s="11"/>
       <c r="C987" s="10"/>
@@ -25318,7 +25318,7 @@
       <c r="V987" s="4"/>
       <c r="W987" s="4"/>
     </row>
-    <row r="988" spans="1:23" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="10"/>
       <c r="B988" s="11"/>
       <c r="C988" s="10"/>

--- a/반은숙/반은숙근무기록.xlsx
+++ b/반은숙/반은숙근무기록.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>결제 총액</t>
   </si>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>2023.08.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +216,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +574,7 @@
   <dimension ref="A1:W988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -588,7 +595,7 @@
       </c>
       <c r="B1" s="2">
         <f>SUMIF(A1:A96,"미결제",B1:B96)</f>
-        <v>91390</v>
+        <v>72149.999999999985</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -694,7 +701,7 @@
       </c>
       <c r="B4" s="11">
         <f>N(G4)*24*9620</f>
-        <v>91390</v>
+        <v>72149.999999999985</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>16</v>
@@ -706,11 +713,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F4" s="13">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" ref="G4:G6" si="0">F4-E4</f>
-        <v>0.39583333333333331</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="1"/>
@@ -732,17 +739,21 @@
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="17">
+        <v>45157</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="13">
-        <v>0</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4861111111111111</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="1"/>
@@ -800,7 +811,9 @@
       <c r="D7" s="10"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>

--- a/반은숙/반은숙근무기록.xlsx
+++ b/반은숙/반은숙근무기록.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>결제 총액</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>부품정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.08.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +566,7 @@
   <dimension ref="A1:W988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,7 +587,7 @@
       </c>
       <c r="B1" s="2">
         <f>SUMIF(A1:A96,"미결제",B1:B96)</f>
-        <v>72149.999999999985</v>
+        <v>147506.66666666666</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -703,8 +695,8 @@
         <f>N(G4)*24*9620</f>
         <v>72149.999999999985</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
+      <c r="C4" s="17">
+        <v>45156</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>15</v>
@@ -737,8 +729,13 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11">
+        <f>N(G5)*24*9620</f>
+        <v>75356.666666666672</v>
+      </c>
       <c r="C5" s="17">
         <v>45157</v>
       </c>
@@ -749,11 +746,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>-0.4861111111111111</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="1"/>
@@ -809,10 +806,15 @@
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" ref="G7:G14" si="1">F7-E7</f>
+        <v>0</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="1"/>
@@ -836,9 +838,16 @@
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -861,9 +870,16 @@
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -886,9 +902,16 @@
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -911,9 +934,16 @@
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -936,9 +966,16 @@
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -961,9 +998,16 @@
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -986,9 +1030,16 @@
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -25358,12 +25409,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25373,12 +25424,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25388,12 +25439,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25403,12 +25454,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
+  <conditionalFormatting sqref="E15:F30 G15:G37 E3:G14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
